--- a/excercises/excercises/120.self_flow_well_with_ESP.xlsx
+++ b/excercises/excercises/120.self_flow_well_with_ESP.xlsx
@@ -8,116 +8,66 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC98D12F-E76B-419E-A80B-1235DB57978B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C24BA52-4445-4E97-A206-9C5C29F0EB87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="422" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="well" sheetId="107" r:id="rId1"/>
-    <sheet name="well нп 1296" sheetId="108" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="Bob_" localSheetId="0">well!$C$14</definedName>
-    <definedName name="Bob_" localSheetId="1">'well нп 1296'!$C$14</definedName>
-    <definedName name="d_annular_pr" localSheetId="1">'well нп 1296'!$C$35</definedName>
     <definedName name="d_annular_pr">well!$C$35</definedName>
     <definedName name="Dcas_" localSheetId="0">well!$C$21</definedName>
-    <definedName name="Dcas_" localSheetId="1">'well нп 1296'!$C$21</definedName>
     <definedName name="Dintake_" localSheetId="0">well!$C$25</definedName>
-    <definedName name="Dintake_" localSheetId="1">'well нп 1296'!$C$25</definedName>
     <definedName name="Dtub_" localSheetId="0">well!$C$24</definedName>
-    <definedName name="Dtub_" localSheetId="1">'well нп 1296'!$C$24</definedName>
     <definedName name="Dtub_out_" localSheetId="0">well!$C$22</definedName>
-    <definedName name="Dtub_out_" localSheetId="1">'well нп 1296'!$C$22</definedName>
-    <definedName name="ESPstr" localSheetId="1">'well нп 1296'!$G$45</definedName>
     <definedName name="ESPstr">well!$G$45</definedName>
     <definedName name="Freq_" localSheetId="0">well!$C$40</definedName>
-    <definedName name="Freq_" localSheetId="1">'well нп 1296'!$C$40</definedName>
     <definedName name="Freq1_" localSheetId="0">well!$D$97</definedName>
-    <definedName name="Freq1_" localSheetId="1">'well нп 1296'!$D$97</definedName>
-    <definedName name="fw_" localSheetId="1">'well нп 1296'!$C$33</definedName>
     <definedName name="fw_">well!$C$33</definedName>
     <definedName name="gamma_gas_" localSheetId="0">well!$C$9</definedName>
-    <definedName name="gamma_gas_" localSheetId="1">'well нп 1296'!$C$9</definedName>
     <definedName name="gamma_oil_" localSheetId="0">well!$C$7</definedName>
-    <definedName name="gamma_oil_" localSheetId="1">'well нп 1296'!$C$7</definedName>
     <definedName name="gamma_wat_" localSheetId="0">well!$C$8</definedName>
-    <definedName name="gamma_wat_" localSheetId="1">'well нп 1296'!$C$8</definedName>
     <definedName name="Head_ESP_" localSheetId="0">well!$C$39</definedName>
-    <definedName name="Head_ESP_" localSheetId="1">'well нп 1296'!$C$39</definedName>
     <definedName name="Hmes_" localSheetId="0">well!$C$18</definedName>
-    <definedName name="Hmes_" localSheetId="1">'well нп 1296'!$C$18</definedName>
     <definedName name="Hpump_" localSheetId="0">well!$C$20</definedName>
-    <definedName name="Hpump_" localSheetId="1">'well нп 1296'!$C$20</definedName>
-    <definedName name="k_split_liquid" localSheetId="1">'well нп 1296'!$L$63</definedName>
     <definedName name="k_split_liquid">well!$L$63</definedName>
     <definedName name="Kdegr_" localSheetId="0">well!$D$63</definedName>
-    <definedName name="Kdegr_" localSheetId="1">'well нп 1296'!$D$63</definedName>
     <definedName name="KsepGasSep_" localSheetId="0">well!$C$45</definedName>
-    <definedName name="KsepGasSep_" localSheetId="1">'well нп 1296'!$C$45</definedName>
-    <definedName name="mu_" localSheetId="1">'well нп 1296'!$C$15</definedName>
     <definedName name="mu_">well!$C$15</definedName>
     <definedName name="N_" localSheetId="0">well!$C$55</definedName>
-    <definedName name="N_" localSheetId="1">'well нп 1296'!$C$55</definedName>
     <definedName name="NumStage_" localSheetId="0">well!$C$44</definedName>
-    <definedName name="NumStage_" localSheetId="1">'well нп 1296'!$C$44</definedName>
     <definedName name="Pb_" localSheetId="0">well!$C$12</definedName>
-    <definedName name="Pb_" localSheetId="1">'well нп 1296'!$C$12</definedName>
     <definedName name="Pbuf_" localSheetId="0">well!$C$26</definedName>
-    <definedName name="Pbuf_" localSheetId="1">'well нп 1296'!$C$26</definedName>
     <definedName name="Pdis_" localSheetId="0">well!$C$29</definedName>
-    <definedName name="Pdis_" localSheetId="1">'well нп 1296'!$C$29</definedName>
     <definedName name="PI_" localSheetId="0">well!$C$51</definedName>
-    <definedName name="PI_" localSheetId="1">'well нп 1296'!$C$51</definedName>
     <definedName name="Pintake_" localSheetId="0">well!$C$27</definedName>
-    <definedName name="Pintake_" localSheetId="1">'well нп 1296'!$C$27</definedName>
-    <definedName name="PKsep" localSheetId="1">'well нп 1296'!$C$46</definedName>
     <definedName name="PKsep">well!$C$46</definedName>
     <definedName name="Pres_" localSheetId="0">well!$C$50</definedName>
-    <definedName name="Pres_" localSheetId="1">'well нп 1296'!$C$50</definedName>
     <definedName name="PumpID_" localSheetId="0">well!$C$41</definedName>
-    <definedName name="PumpID_" localSheetId="1">'well нп 1296'!$C$41</definedName>
-    <definedName name="PVT_str_" localSheetId="1">'well нп 1296'!$G$42</definedName>
     <definedName name="PVT_str_">well!$G$42</definedName>
-    <definedName name="PVT_str_annular_" localSheetId="1">'well нп 1296'!$G$48</definedName>
     <definedName name="PVT_str_annular_">well!$G$48</definedName>
     <definedName name="Pwf_" localSheetId="0">well!$C$31</definedName>
-    <definedName name="Pwf_" localSheetId="1">'well нп 1296'!$C$31</definedName>
     <definedName name="Pwf1_" localSheetId="0">well!$D$95</definedName>
-    <definedName name="Pwf1_" localSheetId="1">'well нп 1296'!$D$95</definedName>
     <definedName name="Q_" localSheetId="0">well!$C$32</definedName>
-    <definedName name="Q_" localSheetId="1">'well нп 1296'!$C$32</definedName>
-    <definedName name="Q_annular_" localSheetId="1">'well нп 1296'!$C$34</definedName>
     <definedName name="Q_annular_">well!$C$34</definedName>
     <definedName name="Q_ESP_" localSheetId="0">well!$C$38</definedName>
-    <definedName name="Q_ESP_" localSheetId="1">'well нп 1296'!$C$38</definedName>
-    <definedName name="Q_total_" localSheetId="1">'well нп 1296'!$C$30</definedName>
     <definedName name="Q_total_">well!$C$30</definedName>
     <definedName name="Qmax" localSheetId="0">well!$C$43</definedName>
-    <definedName name="Qmax" localSheetId="1">'well нп 1296'!$C$43</definedName>
     <definedName name="Qreal_" localSheetId="0">well!$D$96</definedName>
-    <definedName name="Qreal_" localSheetId="1">'well нп 1296'!$D$96</definedName>
     <definedName name="Rp_" localSheetId="0">well!$C$11</definedName>
-    <definedName name="Rp_" localSheetId="1">'well нп 1296'!$C$11</definedName>
     <definedName name="Rsb_" localSheetId="0">well!$C$10</definedName>
-    <definedName name="Rsb_" localSheetId="1">'well нп 1296'!$C$10</definedName>
     <definedName name="Tgrad" localSheetId="0">well!$C$52</definedName>
-    <definedName name="Tgrad" localSheetId="1">'well нп 1296'!$C$52</definedName>
-    <definedName name="theta_" localSheetId="1">'well нп 1296'!$C$23</definedName>
     <definedName name="theta_">well!$C$23</definedName>
     <definedName name="Tintake_" localSheetId="0">well!$C$28</definedName>
-    <definedName name="Tintake_" localSheetId="1">'well нп 1296'!$C$28</definedName>
-    <definedName name="TKsep" localSheetId="1">'well нп 1296'!$C$47</definedName>
     <definedName name="TKsep">well!$C$47</definedName>
     <definedName name="Tres_" localSheetId="0">well!$C$13</definedName>
-    <definedName name="Tres_" localSheetId="1">'well нп 1296'!$C$13</definedName>
     <definedName name="Udl_" localSheetId="0">well!$C$19</definedName>
-    <definedName name="Udl_" localSheetId="1">'well нп 1296'!$C$19</definedName>
     <definedName name="wc_" localSheetId="0">well!$C$14</definedName>
-    <definedName name="wc_" localSheetId="1">'well нп 1296'!$C$14</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1" iterateCount="50" iterateDelta="0.01"/>
   <extLst>
@@ -131,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
   <si>
     <t>Q</t>
   </si>
@@ -838,9 +788,6 @@
     <t>Давление в затрубе сверху вниз</t>
   </si>
   <si>
-    <t>(Dcas_^2 - Dtub_out_^2)^(1/2)</t>
-  </si>
-  <si>
     <t>Давление в затрубе снизу вверх</t>
   </si>
   <si>
@@ -857,9 +804,6 @@
   </si>
   <si>
     <t>Коэффициент деления жидкости - доля в НКТ</t>
-  </si>
-  <si>
-    <t>вмы</t>
   </si>
 </sst>
 </file>
@@ -867,7 +811,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1238,7 +1182,7 @@
     <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
@@ -1416,43 +1360,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3713408133929201</c:v>
+                  <c:v>1.559118634191879</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2604520327804463</c:v>
+                  <c:v>3.488927744877127</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7354248501491716</c:v>
+                  <c:v>5.9995033143006324</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.8703173677054465</c:v>
+                  <c:v>9.1562275980625714</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.688093183755779</c:v>
+                  <c:v>12.980350073113867</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.188974378880218</c:v>
+                  <c:v>17.472182316169523</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22.356512170070193</c:v>
+                  <c:v>22.616421007014264</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28.159818085152377</c:v>
+                  <c:v>28.384150575196287</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.554894412163733</c:v>
+                  <c:v>34.734061214655505</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41.763678230708649</c:v>
+                  <c:v>41.822257074525695</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50.004177954891489</c:v>
+                  <c:v>50.009508975175521</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58.324893196184554</c:v>
+                  <c:v>58.32796983806567</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>66.658020591322312</c:v>
+                  <c:v>66.659361836840532</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
                   <c:v>75</c:v>
@@ -1584,52 +1528,52 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>9.3686806123681361</c:v>
+                  <c:v>9.4510445510357393</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.602826158750903</c:v>
+                  <c:v>10.688164610093018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.872763849924773</c:v>
+                  <c:v>11.961770493381993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.187762769996576</c:v>
+                  <c:v>13.281024796911447</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.555385002166513</c:v>
+                  <c:v>14.653424813529455</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.982080259094703</c:v>
+                  <c:v>16.085379400373021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.473537470920093</c:v>
+                  <c:v>17.5825510459714</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.034901600176479</c:v>
+                  <c:v>19.15006721971168</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.67091111176131</c:v>
+                  <c:v>20.792654519507614</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.385986390297617</c:v>
+                  <c:v>22.514724967627604</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.184286578605786</c:v>
+                  <c:v>24.320431434753978</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.069745394540135</c:v>
+                  <c:v>26.213702477787681</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28.046092574268172</c:v>
+                  <c:v>28.198263083734599</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.116865293481492</c:v>
+                  <c:v>30.277645578963494</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.285412523949375</c:v>
+                  <c:v>32.455193605249896</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.554894412163733</c:v>
+                  <c:v>34.734061214655505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1758,52 +1702,52 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>8.0706500582890293</c:v>
+                  <c:v>8.400014756357173</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.548716546266832</c:v>
+                  <c:v>11.906102059732911</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.128864033147334</c:v>
+                  <c:v>16.495198559161292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.706230697856363</c:v>
+                  <c:v>22.05973635292721</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.310335110699633</c:v>
+                  <c:v>28.627450164839701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.911877181253672</c:v>
+                  <c:v>36.175965345018497</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.257991379720053</c:v>
+                  <c:v>44.502865741139232</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.671771886321451</c:v>
+                  <c:v>52.916550759989882</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61.091096436176599</c:v>
+                  <c:v>61.336074092289977</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>69.513872390993299</c:v>
+                  <c:v>69.759268961025313</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>77.938719020870963</c:v>
+                  <c:v>78.184703293048287</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>86.364675296881998</c:v>
+                  <c:v>86.611379153403249</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>94.7910436156603</c:v>
+                  <c:v>95.038571577726231</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>103.2173000313322</c:v>
+                  <c:v>103.4657358054951</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>111.64303969694829</c:v>
+                  <c:v>111.89245080709286</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>120.06794215187824</c:v>
+                  <c:v>120.3183833052079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2986,1721 +2930,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Распределение</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> давления в скважине</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'well нп 1296'!$F$65</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P снизу вверх</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>'well нп 1296'!$F$66:$F$86</c:f>
-              <c:strCache>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>#ЗНАЧ!</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#ЗНАЧ!</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#ЗНАЧ!</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#ЗНАЧ!</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#ЗНАЧ!</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#ЗНАЧ!</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#ЗНАЧ!</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#ЗНАЧ!</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#ЗНАЧ!</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#ЗНАЧ!</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#ЗНАЧ!</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#ЗНАЧ!</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#ЗНАЧ!</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#ЗНАЧ!</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#ЗНАЧ!</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#ЗНАЧ!</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#ЗНАЧ!</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>#ЗНАЧ!</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>#ЗНАЧ!</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>вмы</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>75</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'well нп 1296'!$C$66:$C$86</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>167.85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>335.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>503.54999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>671.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>839.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1007.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1174.95</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1342.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1510.6499999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1678.4999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1846.3499999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2014.1999999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2182.0499999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2349.8999999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2517.7499999999995</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2685.5999999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2853.4499999999994</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3021.2999999999993</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3189.1499999999992</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3356.9999999999991</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A2D9-469D-B244-66218EEC78B4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'well нп 1296'!$O$65</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Давление в затрубе снизу вверх</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'well нп 1296'!$O$66:$O$86</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'well нп 1296'!$C$66:$C$86</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>167.85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>335.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>503.54999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>671.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>839.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1007.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1174.95</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1342.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1510.6499999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1678.4999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1846.3499999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2014.1999999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2182.0499999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2349.8999999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2517.7499999999995</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2685.5999999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2853.4499999999994</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3021.2999999999993</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3189.1499999999992</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3356.9999999999991</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A2D9-469D-B244-66218EEC78B4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'well нп 1296'!$K$65</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Давление в НКТ снизу вверх</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'well нп 1296'!$K$66:$K$86</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'well нп 1296'!$C$66:$C$86</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>167.85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>335.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>503.54999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>671.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>839.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1007.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1174.95</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1342.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1510.6499999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1678.4999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1846.3499999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2014.1999999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2182.0499999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2349.8999999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2517.7499999999995</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2685.5999999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2853.4499999999994</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3021.2999999999993</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3189.1499999999992</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3356.9999999999991</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A2D9-469D-B244-66218EEC78B4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="304304640"/>
-        <c:axId val="304305216"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="304304640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="t"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Давление,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> атм</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="304305216"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="304305216"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Глубина,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> м</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="304304640"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Распределение</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> давления в скважине</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>P снизу вверх</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'well нп 1296'!$F$101:$F$121</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'well нп 1296'!$C$101:$C$121</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>167.85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>335.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>503.54999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>671.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>839.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1007.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1174.95</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1342.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1510.6499999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1678.4999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1846.3499999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2014.1999999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2182.0499999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2349.8999999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2517.7499999999995</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2685.5999999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2853.4499999999994</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3021.2999999999993</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3189.1499999999992</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3356.9999999999991</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5979-4EF5-95B4-984C18782BB5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Давление в НКТ</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'well нп 1296'!$L$101:$L$121</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'well нп 1296'!$C$101:$C$121</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>167.85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>335.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>503.54999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>671.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>839.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1007.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1174.95</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1342.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1510.6499999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1678.4999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1846.3499999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2014.1999999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2182.0499999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2349.8999999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2517.7499999999995</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2685.5999999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2853.4499999999994</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3021.2999999999993</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3189.1499999999992</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3356.9999999999991</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5979-4EF5-95B4-984C18782BB5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Давление затруб</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'well нп 1296'!$N$101:$N$121</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'well нп 1296'!$C$101:$C$121</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>167.85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>335.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>503.54999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>671.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>839.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1007.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1174.95</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1342.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1510.6499999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1678.4999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1846.3499999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2014.1999999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2182.0499999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2349.8999999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2517.7499999999995</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2685.5999999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2853.4499999999994</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3021.2999999999993</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3189.1499999999992</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3356.9999999999991</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5979-4EF5-95B4-984C18782BB5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="304307520"/>
-        <c:axId val="304005120"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="304307520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="t"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Давление,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> атм</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="304005120"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="304005120"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Глубина,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> м</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="304307520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4742,86 +2971,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5893,1038 +4042,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6984,87 +4101,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>34018</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>122462</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>54427</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F94C12-1102-4B5B-9B5C-E3917A77A8FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>176893</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>639535</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A407BD3E-87CA-45E5-AD07-F962F4650A8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7420,8 +4456,8 @@
   </sheetPr>
   <dimension ref="A1:P194"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q77" sqref="Q77"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -7717,8 +4753,8 @@
         <v>62</v>
       </c>
       <c r="C27" s="2">
-        <f ca="1">PKsep</f>
-        <v>34.554894412163733</v>
+        <f>PKsep</f>
+        <v>35.590000000000003</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>2</v>
@@ -7749,7 +4785,7 @@
     </row>
     <row r="30" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B30" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="2">
         <v>100</v>
@@ -7813,9 +4849,6 @@
         <v>52</v>
       </c>
       <c r="D35" s="24"/>
-      <c r="E35" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="36" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7879,8 +4912,8 @@
       </c>
       <c r="D42" s="24"/>
       <c r="G42" s="26" t="str">
-        <f ca="1">[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,mu_,,KsepGasSep_,PKsep,TKsep)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:200,000;rp_m3m3:200,000;pb_atma:130,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:5,000;PVTcorr:0;ksep_fr:0,950;pksep_atma:34,555;tksep_C:85,000;</v>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,mu_,,KsepGasSep_,PKsep,TKsep)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:200,000;rp_m3m3:200,000;pb_atma:130,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:5,000;PVTcorr:0;ksep_fr:0,950;pksep_atma:35,590;tksep_C:85,000;</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -7926,8 +4959,7 @@
         <v>77</v>
       </c>
       <c r="C46" s="8">
-        <f ca="1">F81</f>
-        <v>34.554894412163733</v>
+        <v>35.590000000000003</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>2</v>
@@ -8027,14 +5059,14 @@
         <v>0.5</v>
       </c>
       <c r="G63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L63" s="46">
         <v>0.65</v>
       </c>
     </row>
     <row r="64" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="3:16" ht="76.5" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:16" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C65" s="32" t="s">
         <v>15</v>
       </c>
@@ -8058,19 +5090,19 @@
         <v>27</v>
       </c>
       <c r="K65" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L65" s="38" t="s">
         <v>26</v>
       </c>
       <c r="M65" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N65" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O65" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P65" s="31" t="s">
         <v>88</v>
@@ -8085,7 +5117,7 @@
         <v>40</v>
       </c>
       <c r="F66" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C67,C66,F67,PVT_str_,theta_,Dtub_,,D67,D66)</f>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C67,C66,F67,PVT_str_,theta_,Dtub_,,D67,D66)</f>
         <v>0</v>
       </c>
       <c r="I66" s="6"/>
@@ -8094,12 +5126,12 @@
         <v>20</v>
       </c>
       <c r="K66" s="43">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C67,C66,K67,PVT_str_,theta_,Dtub_,1,D67,D66)</f>
-        <v>8.0706500582890293</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C67,C66,K67,PVT_str_,theta_,Dtub_,1,D67,D66)</f>
+        <v>8.400014756357173</v>
       </c>
       <c r="O66" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C67,C66,O67,PVT_str_annular_,theta_,d_annular_pr,1,D67,D66)</f>
-        <v>9.3686806123681361</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C67,C66,O67,PVT_str_annular_,theta_,d_annular_pr,1,D67,D66)</f>
+        <v>9.4510445510357393</v>
       </c>
       <c r="P66" s="6">
         <v>1</v>
@@ -8115,25 +5147,25 @@
         <v>43</v>
       </c>
       <c r="F67" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C68,C67,F68,PVT_str_,theta_,Dtub_,,D68,D67)</f>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C68,C67,F68,PVT_str_,theta_,Dtub_,,D68,D67)</f>
         <v>0</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C66,C67,J66,PVT_str_,theta_,Dtub_,1,D66,D67)</f>
-        <v>26.455037855379182</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C66,C67,J66,PVT_str_,theta_,Dtub_,1,D66,D67)</f>
+        <v>26.355429747824981</v>
       </c>
       <c r="K67" s="43">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C68,C67,K68,PVT_str_,theta_,Dtub_,1,D68,D67)</f>
-        <v>11.548716546266832</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C68,C67,K68,PVT_str_,theta_,Dtub_,1,D68,D67)</f>
+        <v>11.906102059732911</v>
       </c>
       <c r="O67" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C68,C67,O68,PVT_str_annular_,theta_,d_annular_pr,1,D68,D67)</f>
-        <v>10.602826158750903</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C68,C67,O68,PVT_str_annular_,theta_,d_annular_pr,1,D68,D67)</f>
+        <v>10.688164610093018</v>
       </c>
       <c r="P67" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C66,C67,P66,PVT_str_,theta_,d_annular_pr,1,D66,D67)</f>
-        <v>1.9934201253646571</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C66,C67,P66,PVT_str_,theta_,d_annular_pr,1,D66,D67)</f>
+        <v>1.990242709133246</v>
       </c>
     </row>
     <row r="68" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8146,25 +5178,25 @@
         <v>46</v>
       </c>
       <c r="F68" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C69,C68,F69,PVT_str_,theta_,Dtub_,,D69,D68)</f>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C69,C68,F69,PVT_str_,theta_,Dtub_,,D69,D68)</f>
         <v>0</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C67,C68,J67,PVT_str_,theta_,Dtub_,1,D67,D68)</f>
-        <v>33.963790692968622</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C67,C68,J67,PVT_str_,theta_,Dtub_,1,D67,D68)</f>
+        <v>33.750712642375831</v>
       </c>
       <c r="K68" s="43">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C69,C68,K69,PVT_str_,theta_,Dtub_,1,D69,D68)</f>
-        <v>16.128864033147334</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C69,C68,K69,PVT_str_,theta_,Dtub_,1,D69,D68)</f>
+        <v>16.495198559161292</v>
       </c>
       <c r="O68" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C69,C68,O69,PVT_str_annular_,theta_,d_annular_pr,1,D69,D68)</f>
-        <v>11.872763849924773</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C69,C68,O69,PVT_str_annular_,theta_,d_annular_pr,1,D69,D68)</f>
+        <v>11.961770493381993</v>
       </c>
       <c r="P68" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C67,C68,P67,PVT_str_,theta_,d_annular_pr,1,D67,D68)</f>
-        <v>3.2129499636518113</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C67,C68,P67,PVT_str_,theta_,d_annular_pr,1,D67,D68)</f>
+        <v>3.1919909078884521</v>
       </c>
     </row>
     <row r="69" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8177,25 +5209,25 @@
         <v>49</v>
       </c>
       <c r="F69" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C70,C69,F70,PVT_str_,theta_,Dtub_,,D70,D69)</f>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C70,C69,F70,PVT_str_,theta_,Dtub_,,D70,D69)</f>
         <v>0</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C68,C69,J68,PVT_str_,theta_,Dtub_,1,D68,D69)</f>
-        <v>42.300684455705735</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C68,C69,J68,PVT_str_,theta_,Dtub_,1,D68,D69)</f>
+        <v>42.030357431659887</v>
       </c>
       <c r="K69" s="43">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C70,C69,K70,PVT_str_,theta_,Dtub_,1,D70,D69)</f>
-        <v>21.706230697856363</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C70,C69,K70,PVT_str_,theta_,Dtub_,1,D70,D69)</f>
+        <v>22.05973635292721</v>
       </c>
       <c r="O69" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C70,C69,O70,PVT_str_annular_,theta_,d_annular_pr,1,D70,D69)</f>
-        <v>13.187762769996576</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C70,C69,O70,PVT_str_annular_,theta_,d_annular_pr,1,D70,D69)</f>
+        <v>13.281024796911447</v>
       </c>
       <c r="P69" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C68,C69,P68,PVT_str_,theta_,d_annular_pr,1,D68,D69)</f>
-        <v>4.8009552799896626</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C68,C69,P68,PVT_str_,theta_,d_annular_pr,1,D68,D69)</f>
+        <v>4.743732706527954</v>
       </c>
     </row>
     <row r="70" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8208,25 +5240,25 @@
         <v>52</v>
       </c>
       <c r="F70" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C71,C70,F71,PVT_str_,theta_,Dtub_,,D71,D70)</f>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C71,C70,F71,PVT_str_,theta_,Dtub_,,D71,D70)</f>
         <v>0</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C69,C70,J69,PVT_str_,theta_,Dtub_,1,D69,D70)</f>
-        <v>50.739256071223025</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C69,C70,J69,PVT_str_,theta_,Dtub_,1,D69,D70)</f>
+        <v>50.468294435791449</v>
       </c>
       <c r="K70" s="43">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C71,C70,K71,PVT_str_,theta_,Dtub_,1,D71,D70)</f>
-        <v>28.310335110699633</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C71,C70,K71,PVT_str_,theta_,Dtub_,1,D71,D70)</f>
+        <v>28.627450164839701</v>
       </c>
       <c r="O70" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C71,C70,O71,PVT_str_annular_,theta_,d_annular_pr,1,D71,D70)</f>
-        <v>14.555385002166513</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C71,C70,O71,PVT_str_annular_,theta_,d_annular_pr,1,D71,D70)</f>
+        <v>14.653424813529455</v>
       </c>
       <c r="P70" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C69,C70,P69,PVT_str_,theta_,d_annular_pr,1,D69,D70)</f>
-        <v>6.8793210802295484</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C69,C70,P69,PVT_str_,theta_,d_annular_pr,1,D69,D70)</f>
+        <v>6.7617262772576296</v>
       </c>
     </row>
     <row r="71" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8239,25 +5271,25 @@
         <v>55</v>
       </c>
       <c r="F71" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C72,C71,F72,PVT_str_,theta_,Dtub_,,D72,D71)</f>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C72,C71,F72,PVT_str_,theta_,Dtub_,,D72,D71)</f>
         <v>0</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C70,C71,J70,PVT_str_,theta_,Dtub_,1,D70,D71)</f>
-        <v>59.181348636852469</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C70,C71,J70,PVT_str_,theta_,Dtub_,1,D70,D71)</f>
+        <v>58.910221490484425</v>
       </c>
       <c r="K71" s="43">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C72,C71,K72,PVT_str_,theta_,Dtub_,1,D72,D71)</f>
-        <v>35.911877181253672</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C72,C71,K72,PVT_str_,theta_,Dtub_,1,D72,D71)</f>
+        <v>36.175965345018497</v>
       </c>
       <c r="O71" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C72,C71,O72,PVT_str_annular_,theta_,d_annular_pr,1,D72,D71)</f>
-        <v>15.982080259094703</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C72,C71,O72,PVT_str_annular_,theta_,d_annular_pr,1,D72,D71)</f>
+        <v>16.085379400373021</v>
       </c>
       <c r="P71" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C70,C71,P70,PVT_str_,theta_,d_annular_pr,1,D70,D71)</f>
-        <v>9.6751992792954482</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C70,C71,P70,PVT_str_,theta_,d_annular_pr,1,D70,D71)</f>
+        <v>9.361565310946224</v>
       </c>
     </row>
     <row r="72" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8270,25 +5302,25 @@
         <v>58</v>
       </c>
       <c r="F72" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C73,C72,F73,PVT_str_,theta_,Dtub_,,D73,D72)</f>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C73,C72,F73,PVT_str_,theta_,Dtub_,,D73,D72)</f>
         <v>0</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C71,C72,J71,PVT_str_,theta_,Dtub_,1,D71,D72)</f>
-        <v>67.625357287870528</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C71,C72,J71,PVT_str_,theta_,Dtub_,1,D71,D72)</f>
+        <v>67.354394106571633</v>
       </c>
       <c r="K72" s="43">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C73,C72,K73,PVT_str_,theta_,Dtub_,1,D73,D72)</f>
-        <v>44.257991379720053</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C73,C72,K73,PVT_str_,theta_,Dtub_,1,D73,D72)</f>
+        <v>44.502865741139232</v>
       </c>
       <c r="O72" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C73,C72,O73,PVT_str_annular_,theta_,d_annular_pr,1,D73,D72)</f>
-        <v>17.473537470920093</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C73,C72,O73,PVT_str_annular_,theta_,d_annular_pr,1,D73,D72)</f>
+        <v>17.5825510459714</v>
       </c>
       <c r="P72" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C71,C72,P71,PVT_str_,theta_,d_annular_pr,1,D71,D72)</f>
-        <v>13.804636061517636</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C71,C72,P71,PVT_str_,theta_,d_annular_pr,1,D71,D72)</f>
+        <v>13.338698112381273</v>
       </c>
     </row>
     <row r="73" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8301,25 +5333,25 @@
         <v>61</v>
       </c>
       <c r="F73" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C74,C73,F74,PVT_str_,theta_,Dtub_,,D74,D73)</f>
-        <v>1.3713408133929201</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C74,C73,F74,PVT_str_,theta_,Dtub_,,D74,D73)</f>
+        <v>1.559118634191879</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C72,C73,J72,PVT_str_,theta_,Dtub_,1,D72,D73)</f>
-        <v>76.070238609918007</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C72,C73,J72,PVT_str_,theta_,Dtub_,1,D72,D73)</f>
+        <v>75.799680802821129</v>
       </c>
       <c r="K73" s="43">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C74,C73,K74,PVT_str_,theta_,Dtub_,1,D74,D73)</f>
-        <v>52.671771886321451</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C74,C73,K74,PVT_str_,theta_,Dtub_,1,D74,D73)</f>
+        <v>52.916550759989882</v>
       </c>
       <c r="O73" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C74,C73,O74,PVT_str_annular_,theta_,d_annular_pr,1,D74,D73)</f>
-        <v>19.034901600176479</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C74,C73,O74,PVT_str_annular_,theta_,d_annular_pr,1,D74,D73)</f>
+        <v>19.15006721971168</v>
       </c>
       <c r="P73" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C72,C73,P72,PVT_str_,theta_,d_annular_pr,1,D72,D73)</f>
-        <v>18.877472689660177</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C72,C73,P72,PVT_str_,theta_,d_annular_pr,1,D72,D73)</f>
+        <v>18.230074103601346</v>
       </c>
     </row>
     <row r="74" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8332,25 +5364,25 @@
         <v>64</v>
       </c>
       <c r="F74" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C75,C74,F75,PVT_str_,theta_,Dtub_,,D75,D74)</f>
-        <v>3.2604520327804463</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C75,C74,F75,PVT_str_,theta_,Dtub_,,D75,D74)</f>
+        <v>3.488927744877127</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C73,C74,J73,PVT_str_,theta_,Dtub_,1,D73,D74)</f>
-        <v>84.515273637993204</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C73,C74,J73,PVT_str_,theta_,Dtub_,1,D73,D74)</f>
+        <v>84.245303566030188</v>
       </c>
       <c r="K74" s="43">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C75,C74,K75,PVT_str_,theta_,Dtub_,1,D75,D74)</f>
-        <v>61.091096436176599</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C75,C74,K75,PVT_str_,theta_,Dtub_,1,D75,D74)</f>
+        <v>61.336074092289977</v>
       </c>
       <c r="O74" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C75,C74,O75,PVT_str_annular_,theta_,d_annular_pr,1,D75,D74)</f>
-        <v>20.67091111176131</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C75,C74,O75,PVT_str_annular_,theta_,d_annular_pr,1,D75,D74)</f>
+        <v>20.792654519507614</v>
       </c>
       <c r="P74" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C73,C74,P73,PVT_str_,theta_,d_annular_pr,1,D73,D74)</f>
-        <v>24.900453184463903</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C73,C74,P73,PVT_str_,theta_,d_annular_pr,1,D73,D74)</f>
+        <v>24.050391996760837</v>
       </c>
     </row>
     <row r="75" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8363,25 +5395,25 @@
         <v>67</v>
       </c>
       <c r="F75" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C76,C75,F76,PVT_str_,theta_,Dtub_,,D76,D75)</f>
-        <v>5.7354248501491716</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C76,C75,F76,PVT_str_,theta_,Dtub_,,D76,D75)</f>
+        <v>5.9995033143006324</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C74,C75,J74,PVT_str_,theta_,Dtub_,1,D74,D75)</f>
-        <v>92.959943945656065</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C74,C75,J74,PVT_str_,theta_,Dtub_,1,D74,D75)</f>
+        <v>92.690702493771497</v>
       </c>
       <c r="K75" s="43">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C76,C75,K76,PVT_str_,theta_,Dtub_,1,D76,D75)</f>
-        <v>69.513872390993299</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C76,C75,K76,PVT_str_,theta_,Dtub_,1,D76,D75)</f>
+        <v>69.759268961025313</v>
       </c>
       <c r="O75" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C76,C75,O76,PVT_str_annular_,theta_,d_annular_pr,1,D76,D75)</f>
-        <v>22.385986390297617</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C76,C75,O76,PVT_str_annular_,theta_,d_annular_pr,1,D76,D75)</f>
+        <v>22.514724967627604</v>
       </c>
       <c r="P75" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C74,C75,P74,PVT_str_,theta_,d_annular_pr,1,D74,D75)</f>
-        <v>31.887159695770389</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C74,C75,P74,PVT_str_,theta_,d_annular_pr,1,D74,D75)</f>
+        <v>30.80831911642596</v>
       </c>
     </row>
     <row r="76" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8394,25 +5426,25 @@
         <v>70</v>
       </c>
       <c r="F76" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C77,C76,F77,PVT_str_,theta_,Dtub_,,D77,D76)</f>
-        <v>8.8703173677054465</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C77,C76,F77,PVT_str_,theta_,Dtub_,,D77,D76)</f>
+        <v>9.1562275980625714</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C75,C76,J75,PVT_str_,theta_,Dtub_,1,D75,D76)</f>
-        <v>101.40386170360254</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C75,C76,J75,PVT_str_,theta_,Dtub_,1,D75,D76)</f>
+        <v>101.13545953833881</v>
       </c>
       <c r="K76" s="43">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C77,C76,K77,PVT_str_,theta_,Dtub_,1,D77,D76)</f>
-        <v>77.938719020870963</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C77,C76,K77,PVT_str_,theta_,Dtub_,1,D77,D76)</f>
+        <v>78.184703293048287</v>
       </c>
       <c r="O76" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C77,C76,O77,PVT_str_annular_,theta_,d_annular_pr,1,D77,D76)</f>
-        <v>24.184286578605786</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C77,C76,O77,PVT_str_annular_,theta_,d_annular_pr,1,D77,D76)</f>
+        <v>24.320431434753978</v>
       </c>
       <c r="P76" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C75,C76,P75,PVT_str_,theta_,d_annular_pr,1,D75,D76)</f>
-        <v>39.720247527801732</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C75,C76,P75,PVT_str_,theta_,d_annular_pr,1,D75,D76)</f>
+        <v>38.427376611503753</v>
       </c>
     </row>
     <row r="77" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8425,25 +5457,25 @@
         <v>73</v>
       </c>
       <c r="F77" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C78,C77,F78,PVT_str_,theta_,Dtub_,,D78,D77)</f>
-        <v>12.688093183755779</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C78,C77,F78,PVT_str_,theta_,Dtub_,,D78,D77)</f>
+        <v>12.980350073113867</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C76,C77,J76,PVT_str_,theta_,Dtub_,1,D76,D77)</f>
-        <v>109.84672776172005</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C76,C77,J76,PVT_str_,theta_,Dtub_,1,D76,D77)</f>
+        <v>109.57925287375804</v>
       </c>
       <c r="K77" s="43">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C78,C77,K78,PVT_str_,theta_,Dtub_,1,D78,D77)</f>
-        <v>86.364675296881998</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C78,C77,K78,PVT_str_,theta_,Dtub_,1,D78,D77)</f>
+        <v>86.611379153403249</v>
       </c>
       <c r="O77" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C78,C77,O78,PVT_str_annular_,theta_,d_annular_pr,1,D78,D77)</f>
-        <v>26.069745394540135</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C78,C77,O78,PVT_str_annular_,theta_,d_annular_pr,1,D78,D77)</f>
+        <v>26.213702477787681</v>
       </c>
       <c r="P77" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C76,C77,P76,PVT_str_,theta_,d_annular_pr,1,D76,D77)</f>
-        <v>48.06394671572329</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C76,C77,P76,PVT_str_,theta_,d_annular_pr,1,D76,D77)</f>
+        <v>46.699505933927931</v>
       </c>
     </row>
     <row r="78" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8456,25 +5488,25 @@
         <v>76</v>
       </c>
       <c r="F78" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C79,C78,F79,PVT_str_,theta_,Dtub_,,D79,D78)</f>
-        <v>17.188974378880218</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C79,C78,F79,PVT_str_,theta_,Dtub_,,D79,D78)</f>
+        <v>17.472182316169523</v>
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C77,C78,J77,PVT_str_,theta_,Dtub_,1,D77,D78)</f>
-        <v>118.28830528297472</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C77,C78,J77,PVT_str_,theta_,Dtub_,1,D77,D78)</f>
+        <v>118.02182822841964</v>
       </c>
       <c r="K78" s="43">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C79,C78,K79,PVT_str_,theta_,Dtub_,1,D79,D78)</f>
-        <v>94.7910436156603</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C79,C78,K79,PVT_str_,theta_,Dtub_,1,D79,D78)</f>
+        <v>95.038571577726231</v>
       </c>
       <c r="O78" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C79,C78,O79,PVT_str_annular_,theta_,d_annular_pr,1,D79,D78)</f>
-        <v>28.046092574268172</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C79,C78,O79,PVT_str_annular_,theta_,d_annular_pr,1,D79,D78)</f>
+        <v>28.198263083734599</v>
       </c>
       <c r="P78" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C77,C78,P77,PVT_str_,theta_,d_annular_pr,1,D77,D78)</f>
-        <v>56.430165688991075</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C77,C78,P77,PVT_str_,theta_,d_annular_pr,1,D77,D78)</f>
+        <v>55.060979174403698</v>
       </c>
     </row>
     <row r="79" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8487,25 +5519,25 @@
         <v>79</v>
       </c>
       <c r="F79" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C80,C79,F80,PVT_str_,theta_,Dtub_,,D80,D79)</f>
-        <v>22.356512170070193</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C80,C79,F80,PVT_str_,theta_,Dtub_,,D80,D79)</f>
+        <v>22.616421007014264</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C78,C79,J78,PVT_str_,theta_,Dtub_,1,D78,D79)</f>
-        <v>126.72840248583773</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C78,C79,J78,PVT_str_,theta_,Dtub_,1,D78,D79)</f>
+        <v>126.4629801404637</v>
       </c>
       <c r="K79" s="43">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C80,C79,K80,PVT_str_,theta_,Dtub_,1,D80,D79)</f>
-        <v>103.2173000313322</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C80,C79,K80,PVT_str_,theta_,Dtub_,1,D80,D79)</f>
+        <v>103.4657358054951</v>
       </c>
       <c r="O79" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C80,C79,O80,PVT_str_annular_,theta_,d_annular_pr,1,D80,D79)</f>
-        <v>30.116865293481492</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C80,C79,O80,PVT_str_annular_,theta_,d_annular_pr,1,D80,D79)</f>
+        <v>30.277645578963494</v>
       </c>
       <c r="P79" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C78,C79,P78,PVT_str_,theta_,d_annular_pr,1,D78,D79)</f>
-        <v>64.804762422034642</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C78,C79,P78,PVT_str_,theta_,d_annular_pr,1,D78,D79)</f>
+        <v>63.431984039740094</v>
       </c>
     </row>
     <row r="80" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8518,25 +5550,25 @@
         <v>82</v>
       </c>
       <c r="F80" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C81,C80,F81,PVT_str_,theta_,Dtub_,,D81,D80)</f>
-        <v>28.159818085152377</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C81,C80,F81,PVT_str_,theta_,Dtub_,,D81,D80)</f>
+        <v>28.384150575196287</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C79,C80,J79,PVT_str_,theta_,Dtub_,1,D79,D80)</f>
-        <v>135.16294709182165</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C79,C80,J79,PVT_str_,theta_,Dtub_,1,D79,D80)</f>
+        <v>134.90035853909339</v>
       </c>
       <c r="K80" s="43">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C81,C80,K81,PVT_str_,theta_,Dtub_,1,D81,D80)</f>
-        <v>111.64303969694829</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C81,C80,K81,PVT_str_,theta_,Dtub_,1,D81,D80)</f>
+        <v>111.89245080709286</v>
       </c>
       <c r="O80" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C81,C80,O81,PVT_str_annular_,theta_,d_annular_pr,1,D81,D80)</f>
-        <v>32.285412523949375</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C81,C80,O81,PVT_str_annular_,theta_,d_annular_pr,1,D81,D80)</f>
+        <v>32.455193605249896</v>
       </c>
       <c r="P80" s="6">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_annular_,fw_,C79,C80,P79,PVT_str_,theta_,d_annular_pr,1,D79,D80)</f>
-        <v>73.185112995864216</v>
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C79,C80,P79,PVT_str_,theta_,d_annular_pr,1,D79,D80)</f>
+        <v>71.809552255680188</v>
       </c>
     </row>
     <row r="81" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8552,41 +5584,41 @@
         <v>85</v>
       </c>
       <c r="F81" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C82,C81,F82,PVT_str_,theta_,Dtub_,,D82,D81)</f>
-        <v>34.554894412163733</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C82,C81,F82,PVT_str_,theta_,Dtub_,,D82,D81)</f>
+        <v>34.734061214655505</v>
       </c>
       <c r="G81" s="26">
-        <f ca="1">[1]!MF_ksep_natural_d(Q_,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.63011817587450403</v>
+        <f>[1]!MF_ksep_natural_d(Q_,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.62937823051219122</v>
       </c>
       <c r="H81" s="26">
-        <f ca="1">[1]!MF_ksep_total_d(G81,KsepGasSep_)</f>
-        <v>0.98150590879372523</v>
+        <f>[1]!MF_ksep_total_d(G81,KsepGasSep_)</f>
+        <v>0.98146891152560956</v>
       </c>
       <c r="I81" s="37">
-        <f ca="1">[1]!MF_gas_fraction_d(F81,D81,fw_,PVT_str_)</f>
-        <v>0.21949338244881855</v>
+        <f>[1]!MF_gas_fraction_d(F81,D81,fw_,PVT_str_)</f>
+        <v>0.23339857723202256</v>
       </c>
       <c r="J81" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C80,C81,J80,PVT_str_,theta_,Dtub_,1,D80,D81)</f>
-        <v>143.59259551838673</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C80,C81,J80,PVT_str_,theta_,Dtub_,1,D80,D81)</f>
+        <v>143.33106609414344</v>
       </c>
       <c r="K81" s="44">
-        <f ca="1">M81+F81</f>
-        <v>120.06794215187824</v>
+        <f>M81+F81</f>
+        <v>120.3183833052079</v>
       </c>
       <c r="L81" s="40"/>
       <c r="M81" s="26">
-        <f ca="1">[1]!ESP_dP_atm(Q_,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVT_str_,Tintake_,0,1,,D63)</f>
-        <v>85.513047739714509</v>
+        <f>[1]!ESP_dP_atm(Q_,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVT_str_,Tintake_,0,1,,D63)</f>
+        <v>85.584322090552405</v>
       </c>
       <c r="N81" s="41">
-        <f ca="1">J81-F81</f>
-        <v>109.037701106223</v>
+        <f>J81-F81</f>
+        <v>108.59700487948794</v>
       </c>
       <c r="O81" s="39">
-        <f ca="1">F81</f>
-        <v>34.554894412163733</v>
+        <f>F81</f>
+        <v>34.734061214655505</v>
       </c>
       <c r="P81" s="40"/>
     </row>
@@ -8601,8 +5633,8 @@
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="35">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C83,C82,F83,PVT_str_,theta_,Dtub_,,D83,D82)</f>
-        <v>41.763678230708649</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C83,C82,F83,PVT_str_,theta_,Dtub_,,D83,D82)</f>
+        <v>41.822257074525695</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
@@ -8619,8 +5651,8 @@
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C84,C83,F84,PVT_str_,theta_,Dtub_,,D84,D83)</f>
-        <v>50.004177954891489</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C84,C83,F84,PVT_str_,theta_,Dtub_,,D84,D83)</f>
+        <v>50.009508975175521</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
@@ -8637,8 +5669,8 @@
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C85,C84,F85,PVT_str_,theta_,Dtub_,,D85,D84)</f>
-        <v>58.324893196184554</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C85,C84,F85,PVT_str_,theta_,Dtub_,,D85,D84)</f>
+        <v>58.32796983806567</v>
       </c>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
@@ -8655,8 +5687,8 @@
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="27">
-        <f ca="1">[1]!MF_p_pipe_atma(Q_,fw_,C86,C85,F86,PVT_str_,theta_,Dtub_,,D86,D85)</f>
-        <v>66.658020591322312</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C86,C85,F86,PVT_str_,theta_,Dtub_,,D86,D85)</f>
+        <v>66.659361836840532</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
@@ -9086,1678 +6118,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1913F352-85FA-4FA9-88F4-D9625BE39D7B}">
-  <sheetPr codeName="Worksheet_well1">
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:P194"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="10" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="str">
-        <f>[1]!getUFVersion()</f>
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.87</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19">
-        <f>gamma_oil_*1000</f>
-        <v>870</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19">
-        <f>gamma_wat_*1000</f>
-        <v>1000</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19">
-        <f>gamma_gas_*1.22</f>
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="2">
-        <v>200</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="22">
-        <f>Rsb_/gamma_oil_</f>
-        <v>229.88505747126436</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="2">
-        <v>200</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="22">
-        <f>Rsb_/gamma_oil_</f>
-        <v>229.88505747126436</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="2">
-        <v>130</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="22">
-        <f>Pb_*1.01325</f>
-        <v>131.7225</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="2">
-        <v>100</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="22">
-        <f>Tres_*9/5+32</f>
-        <v>212</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="B15" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="2">
-        <v>5</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="2">
-        <v>3357</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1500</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="2">
-        <v>125</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="2">
-        <v>73</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="2">
-        <v>90</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="2">
-        <f>Dtub_out_-10</f>
-        <v>63</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="2">
-        <v>100</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="2">
-        <v>20</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="2" t="e">
-        <f>PKsep</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="2">
-        <f>TKsep</f>
-        <v>74.822500000000005</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="2">
-        <v>150</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="2">
-        <v>100</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="2">
-        <v>75</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B32" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="2">
-        <f>Q_total_*k_split_liquid</f>
-        <v>65</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="2">
-        <f>Q_total_*(1-k_split_liquid)</f>
-        <v>35</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="45">
-        <f>Dcas_-Dtub_out_</f>
-        <v>52</v>
-      </c>
-      <c r="D35" s="24"/>
-      <c r="E35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="2">
-        <v>100</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="2">
-        <v>50</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="19">
-        <f>[1]!ESP_id_by_rate(Q_ESP_)</f>
-        <v>737</v>
-      </c>
-      <c r="D41" s="24"/>
-      <c r="G41" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="19" t="str">
-        <f>[1]!ESP_name(C41)</f>
-        <v>ВНН5-125</v>
-      </c>
-      <c r="D42" s="24"/>
-      <c r="G42" s="26" t="e">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,mu_,,KsepGasSep_,PKsep,TKsep)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="19">
-        <f>[1]!esp_max_rate_m3day(Freq_,PumpID_)*1</f>
-        <v>230</v>
-      </c>
-      <c r="D43" s="24"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="19">
-        <f>INT(Head_ESP_/[1]!ESP_head_m(Q_ESP_,1,,PumpID_))</f>
-        <v>312</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B45" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="D45" s="24"/>
-      <c r="G45" s="26" t="str">
-        <f>[1]!ESP_Encode_string(PumpID_,Head_ESP_,Freq_)</f>
-        <v>ESP_ID:737,00000;HeadNom_m:2000,00000;ESPfreq_Hz:50,00000;ESP_U_V:1000,00000;MotorPowerNom_kW:30,00000;Tintake_C:85,00000;Tdis_C:85,00000;KsepGS_fr:0,00000;ESP_energy_fact_Whday:0,00000;ESP_cable_type:0;ESP_Hmes_m:0,00000;GasDegtType:0;Kdegr:0,00000;PKV_work_min:-1,00000;PKV_stop_min:-1,00000;</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B46" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="8" t="e">
-        <f>F81</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B47" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="8">
-        <f>D81</f>
-        <v>74.822500000000005</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G48" s="26" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,mu_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:200,000;rp_m3m3:200,000;pb_atma:130,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:5,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B50" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="2">
-        <v>250</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B51" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="27">
-        <f>[1]!IPR_PI_sm3dayatm(Q_,Pwf_,Pres_,fw_,Pb_)</f>
-        <v>0.39475733194913054</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="2">
-        <v>3</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B55" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="2">
-        <v>20</v>
-      </c>
-      <c r="D55" s="18"/>
-    </row>
-    <row r="59" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C63" t="s">
-        <v>26</v>
-      </c>
-      <c r="D63" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G63" t="s">
-        <v>95</v>
-      </c>
-      <c r="L63" s="46">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="3:16" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H65" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I65" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="J65" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="K65" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="L65" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M65" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="N65" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="O65" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="P65" s="31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="33">
-        <v>0</v>
-      </c>
-      <c r="D66" s="33">
-        <f t="shared" ref="D66:D85" si="0">D67-Tgrad*(C67-C66)/100</f>
-        <v>-0.70999999999999019</v>
-      </c>
-      <c r="F66" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C67,C66,F67,PVT_str_,theta_,Dtub_,,D67,D66)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I66" s="6"/>
-      <c r="J66" s="39">
-        <f>Pbuf_</f>
-        <v>20</v>
-      </c>
-      <c r="K66" s="43" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C67,C66,K67,PVT_str_,theta_,Dtub_,1,D67,D66)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O66" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C67,C66,O67,PVT_str_annular_,theta_,d_annular_pr,1,D67,D66)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P66" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="33">
-        <f t="shared" ref="C67:C86" si="1">C66+Hmes_/N_</f>
-        <v>167.85</v>
-      </c>
-      <c r="D67" s="33">
-        <f t="shared" si="0"/>
-        <v>4.3255000000000097</v>
-      </c>
-      <c r="F67" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C68,C67,F68,PVT_str_,theta_,Dtub_,,D68,D67)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I67" s="6"/>
-      <c r="J67" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C66,C67,J66,PVT_str_,theta_,Dtub_,1,D66,D67)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K67" s="43" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C68,C67,K68,PVT_str_,theta_,Dtub_,1,D68,D67)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O67" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C68,C67,O68,PVT_str_annular_,theta_,d_annular_pr,1,D68,D67)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P67" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C66,C67,P66,PVT_str_,theta_,d_annular_pr,1,D66,D67)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="68" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="33">
-        <f t="shared" si="1"/>
-        <v>335.7</v>
-      </c>
-      <c r="D68" s="33">
-        <f t="shared" si="0"/>
-        <v>9.3610000000000095</v>
-      </c>
-      <c r="F68" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C69,C68,F69,PVT_str_,theta_,Dtub_,,D69,D68)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I68" s="6"/>
-      <c r="J68" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C67,C68,J67,PVT_str_,theta_,Dtub_,1,D67,D68)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K68" s="43" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C69,C68,K69,PVT_str_,theta_,Dtub_,1,D69,D68)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O68" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C69,C68,O69,PVT_str_annular_,theta_,d_annular_pr,1,D69,D68)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P68" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C67,C68,P67,PVT_str_,theta_,d_annular_pr,1,D67,D68)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="69" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="33">
-        <f t="shared" si="1"/>
-        <v>503.54999999999995</v>
-      </c>
-      <c r="D69" s="33">
-        <f t="shared" si="0"/>
-        <v>14.396500000000009</v>
-      </c>
-      <c r="F69" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C70,C69,F70,PVT_str_,theta_,Dtub_,,D70,D69)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I69" s="6"/>
-      <c r="J69" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C68,C69,J68,PVT_str_,theta_,Dtub_,1,D68,D69)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K69" s="43" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C70,C69,K70,PVT_str_,theta_,Dtub_,1,D70,D69)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O69" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C70,C69,O70,PVT_str_annular_,theta_,d_annular_pr,1,D70,D69)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P69" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C68,C69,P68,PVT_str_,theta_,d_annular_pr,1,D68,D69)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="70" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="33">
-        <f t="shared" si="1"/>
-        <v>671.4</v>
-      </c>
-      <c r="D70" s="33">
-        <f t="shared" si="0"/>
-        <v>19.432000000000009</v>
-      </c>
-      <c r="F70" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C71,C70,F71,PVT_str_,theta_,Dtub_,,D71,D70)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I70" s="6"/>
-      <c r="J70" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C69,C70,J69,PVT_str_,theta_,Dtub_,1,D69,D70)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K70" s="43" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C71,C70,K71,PVT_str_,theta_,Dtub_,1,D71,D70)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O70" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C71,C70,O71,PVT_str_annular_,theta_,d_annular_pr,1,D71,D70)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P70" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C69,C70,P69,PVT_str_,theta_,d_annular_pr,1,D69,D70)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="71" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="33">
-        <f t="shared" si="1"/>
-        <v>839.25</v>
-      </c>
-      <c r="D71" s="33">
-        <f t="shared" si="0"/>
-        <v>24.467500000000008</v>
-      </c>
-      <c r="F71" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C72,C71,F72,PVT_str_,theta_,Dtub_,,D72,D71)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I71" s="6"/>
-      <c r="J71" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C70,C71,J70,PVT_str_,theta_,Dtub_,1,D70,D71)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K71" s="43" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C72,C71,K72,PVT_str_,theta_,Dtub_,1,D72,D71)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O71" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C72,C71,O72,PVT_str_annular_,theta_,d_annular_pr,1,D72,D71)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P71" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C70,C71,P70,PVT_str_,theta_,d_annular_pr,1,D70,D71)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="72" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="33">
-        <f t="shared" si="1"/>
-        <v>1007.1</v>
-      </c>
-      <c r="D72" s="33">
-        <f t="shared" si="0"/>
-        <v>29.503000000000007</v>
-      </c>
-      <c r="F72" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C73,C72,F73,PVT_str_,theta_,Dtub_,,D73,D72)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I72" s="6"/>
-      <c r="J72" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C71,C72,J71,PVT_str_,theta_,Dtub_,1,D71,D72)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K72" s="43" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C73,C72,K73,PVT_str_,theta_,Dtub_,1,D73,D72)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O72" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C73,C72,O73,PVT_str_annular_,theta_,d_annular_pr,1,D73,D72)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P72" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C71,C72,P71,PVT_str_,theta_,d_annular_pr,1,D71,D72)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="73" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="33">
-        <f t="shared" si="1"/>
-        <v>1174.95</v>
-      </c>
-      <c r="D73" s="33">
-        <f t="shared" si="0"/>
-        <v>34.538500000000006</v>
-      </c>
-      <c r="F73" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C74,C73,F74,PVT_str_,theta_,Dtub_,,D74,D73)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I73" s="6"/>
-      <c r="J73" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C72,C73,J72,PVT_str_,theta_,Dtub_,1,D72,D73)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K73" s="43" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C74,C73,K74,PVT_str_,theta_,Dtub_,1,D74,D73)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O73" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C74,C73,O74,PVT_str_annular_,theta_,d_annular_pr,1,D74,D73)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P73" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C72,C73,P72,PVT_str_,theta_,d_annular_pr,1,D72,D73)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="74" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="33">
-        <f t="shared" si="1"/>
-        <v>1342.8</v>
-      </c>
-      <c r="D74" s="33">
-        <f t="shared" si="0"/>
-        <v>39.574000000000005</v>
-      </c>
-      <c r="F74" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C75,C74,F75,PVT_str_,theta_,Dtub_,,D75,D74)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I74" s="6"/>
-      <c r="J74" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C73,C74,J73,PVT_str_,theta_,Dtub_,1,D73,D74)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K74" s="43" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C75,C74,K75,PVT_str_,theta_,Dtub_,1,D75,D74)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O74" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C75,C74,O75,PVT_str_annular_,theta_,d_annular_pr,1,D75,D74)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P74" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C73,C74,P73,PVT_str_,theta_,d_annular_pr,1,D73,D74)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="75" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="33">
-        <f t="shared" si="1"/>
-        <v>1510.6499999999999</v>
-      </c>
-      <c r="D75" s="33">
-        <f t="shared" si="0"/>
-        <v>44.609500000000004</v>
-      </c>
-      <c r="F75" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C76,C75,F76,PVT_str_,theta_,Dtub_,,D76,D75)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I75" s="6"/>
-      <c r="J75" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C74,C75,J74,PVT_str_,theta_,Dtub_,1,D74,D75)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K75" s="43" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C76,C75,K76,PVT_str_,theta_,Dtub_,1,D76,D75)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O75" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C76,C75,O76,PVT_str_annular_,theta_,d_annular_pr,1,D76,D75)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P75" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C74,C75,P74,PVT_str_,theta_,d_annular_pr,1,D74,D75)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="76" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="33">
-        <f t="shared" si="1"/>
-        <v>1678.4999999999998</v>
-      </c>
-      <c r="D76" s="33">
-        <f t="shared" si="0"/>
-        <v>49.645000000000003</v>
-      </c>
-      <c r="F76" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C77,C76,F77,PVT_str_,theta_,Dtub_,,D77,D76)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I76" s="6"/>
-      <c r="J76" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C75,C76,J75,PVT_str_,theta_,Dtub_,1,D75,D76)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K76" s="43" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C77,C76,K77,PVT_str_,theta_,Dtub_,1,D77,D76)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O76" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C77,C76,O77,PVT_str_annular_,theta_,d_annular_pr,1,D77,D76)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P76" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C75,C76,P75,PVT_str_,theta_,d_annular_pr,1,D75,D76)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="77" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="33">
-        <f t="shared" si="1"/>
-        <v>1846.3499999999997</v>
-      </c>
-      <c r="D77" s="33">
-        <f t="shared" si="0"/>
-        <v>54.680500000000002</v>
-      </c>
-      <c r="F77" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C78,C77,F78,PVT_str_,theta_,Dtub_,,D78,D77)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I77" s="6"/>
-      <c r="J77" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C76,C77,J76,PVT_str_,theta_,Dtub_,1,D76,D77)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K77" s="43" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C78,C77,K78,PVT_str_,theta_,Dtub_,1,D78,D77)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O77" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C78,C77,O78,PVT_str_annular_,theta_,d_annular_pr,1,D78,D77)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P77" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C76,C77,P76,PVT_str_,theta_,d_annular_pr,1,D76,D77)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="78" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="33">
-        <f t="shared" si="1"/>
-        <v>2014.1999999999996</v>
-      </c>
-      <c r="D78" s="33">
-        <f t="shared" si="0"/>
-        <v>59.716000000000001</v>
-      </c>
-      <c r="F78" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C79,C78,F79,PVT_str_,theta_,Dtub_,,D79,D78)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I78" s="6"/>
-      <c r="J78" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C77,C78,J77,PVT_str_,theta_,Dtub_,1,D77,D78)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K78" s="43" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C79,C78,K79,PVT_str_,theta_,Dtub_,1,D79,D78)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O78" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C79,C78,O79,PVT_str_annular_,theta_,d_annular_pr,1,D79,D78)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P78" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C77,C78,P77,PVT_str_,theta_,d_annular_pr,1,D77,D78)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="79" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="33">
-        <f t="shared" si="1"/>
-        <v>2182.0499999999997</v>
-      </c>
-      <c r="D79" s="33">
-        <f t="shared" si="0"/>
-        <v>64.751500000000007</v>
-      </c>
-      <c r="F79" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C80,C79,F80,PVT_str_,theta_,Dtub_,,D80,D79)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I79" s="6"/>
-      <c r="J79" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C78,C79,J78,PVT_str_,theta_,Dtub_,1,D78,D79)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K79" s="43" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C80,C79,K80,PVT_str_,theta_,Dtub_,1,D80,D79)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O79" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C80,C79,O80,PVT_str_annular_,theta_,d_annular_pr,1,D80,D79)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P79" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C78,C79,P78,PVT_str_,theta_,d_annular_pr,1,D78,D79)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="80" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="33">
-        <f t="shared" si="1"/>
-        <v>2349.8999999999996</v>
-      </c>
-      <c r="D80" s="33">
-        <f t="shared" si="0"/>
-        <v>69.787000000000006</v>
-      </c>
-      <c r="F80" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C81,C80,F81,PVT_str_,theta_,Dtub_,,D81,D80)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I80" s="6"/>
-      <c r="J80" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C79,C80,J79,PVT_str_,theta_,Dtub_,1,D79,D80)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K80" s="43" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C81,C80,K81,PVT_str_,theta_,Dtub_,1,D81,D80)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O80" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C81,C80,O81,PVT_str_annular_,theta_,d_annular_pr,1,D81,D80)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P80" s="6" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C79,C80,P79,PVT_str_,theta_,d_annular_pr,1,D79,D80)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C81" s="33">
-        <f t="shared" si="1"/>
-        <v>2517.7499999999995</v>
-      </c>
-      <c r="D81" s="33">
-        <f t="shared" si="0"/>
-        <v>74.822500000000005</v>
-      </c>
-      <c r="F81" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C82,C81,F82,PVT_str_,theta_,Dtub_,,D82,D81)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G81" s="26" t="e">
-        <f>[1]!MF_ksep_natural_d(Q_,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H81" s="26" t="e">
-        <f>[1]!MF_ksep_total_d(G81,KsepGasSep_)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I81" s="37" t="e">
-        <f>[1]!MF_gas_fraction_d(F81,D81,fw_,PVT_str_)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J81" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C80,C81,J80,PVT_str_,theta_,Dtub_,1,D80,D81)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K81" s="44" t="e">
-        <f>M81+F81</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L81" s="40"/>
-      <c r="M81" s="26" t="e">
-        <f>[1]!ESP_dP_atm(Q_,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVT_str_,Tintake_,0,1,,D63)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N81" s="41" t="e">
-        <f>J81-F81</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O81" s="39" t="e">
-        <f>F81</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P81" s="40"/>
-    </row>
-    <row r="82" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C82" s="33">
-        <f t="shared" si="1"/>
-        <v>2685.5999999999995</v>
-      </c>
-      <c r="D82" s="33">
-        <f t="shared" si="0"/>
-        <v>79.858000000000004</v>
-      </c>
-      <c r="E82" s="6"/>
-      <c r="F82" s="35" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C83,C82,F83,PVT_str_,theta_,Dtub_,,D83,D82)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-    </row>
-    <row r="83" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C83" s="33">
-        <f t="shared" si="1"/>
-        <v>2853.4499999999994</v>
-      </c>
-      <c r="D83" s="33">
-        <f t="shared" si="0"/>
-        <v>84.893500000000003</v>
-      </c>
-      <c r="E83" s="6"/>
-      <c r="F83" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C84,C83,F84,PVT_str_,theta_,Dtub_,,D84,D83)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-    </row>
-    <row r="84" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="33">
-        <f t="shared" si="1"/>
-        <v>3021.2999999999993</v>
-      </c>
-      <c r="D84" s="33">
-        <f t="shared" si="0"/>
-        <v>89.929000000000002</v>
-      </c>
-      <c r="E84" s="6"/>
-      <c r="F84" s="27" t="e">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C85,C84,F85,PVT_str_,theta_,Dtub_,,D85,D84)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-    </row>
-    <row r="85" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C85" s="33">
-        <f t="shared" si="1"/>
-        <v>3189.1499999999992</v>
-      </c>
-      <c r="D85" s="33">
-        <f t="shared" si="0"/>
-        <v>94.964500000000001</v>
-      </c>
-      <c r="E85" s="6"/>
-      <c r="F85" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-    </row>
-    <row r="86" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C86" s="33">
-        <f t="shared" si="1"/>
-        <v>3356.9999999999991</v>
-      </c>
-      <c r="D86" s="33">
-        <f>Tres_</f>
-        <v>100</v>
-      </c>
-      <c r="E86" s="6"/>
-      <c r="F86" s="34">
-        <f>Pwf_</f>
-        <v>75</v>
-      </c>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-    </row>
-    <row r="87" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C95" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D95" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C96" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D96" s="42">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,Pwf1_,fw_,Pb_)</f>
-        <v>73.350635868154683</v>
-      </c>
-    </row>
-    <row r="97" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C97" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D97" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="98" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="3:14" ht="51" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C100" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H100" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J100" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K100" s="11"/>
-      <c r="L100" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M100" s="11"/>
-      <c r="N100" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C101" s="12">
-        <v>0</v>
-      </c>
-      <c r="D101" s="12">
-        <f t="shared" ref="D101:D120" si="2">D102-Tgrad*(C102-C101)/100</f>
-        <v>-0.70999999999999019</v>
-      </c>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
-    </row>
-    <row r="102" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C102" s="12">
-        <f t="shared" ref="C102:C121" si="3">C101+Hmes_/N_</f>
-        <v>167.85</v>
-      </c>
-      <c r="D102" s="12">
-        <f t="shared" si="2"/>
-        <v>4.3255000000000097</v>
-      </c>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
-    </row>
-    <row r="103" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C103" s="12">
-        <f t="shared" si="3"/>
-        <v>335.7</v>
-      </c>
-      <c r="D103" s="12">
-        <f t="shared" si="2"/>
-        <v>9.3610000000000095</v>
-      </c>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="L103" s="14"/>
-      <c r="M103" s="6"/>
-      <c r="N103" s="6"/>
-    </row>
-    <row r="104" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C104" s="12">
-        <f t="shared" si="3"/>
-        <v>503.54999999999995</v>
-      </c>
-      <c r="D104" s="12">
-        <f t="shared" si="2"/>
-        <v>14.396500000000009</v>
-      </c>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="L104" s="14"/>
-      <c r="M104" s="6"/>
-      <c r="N104" s="6"/>
-    </row>
-    <row r="105" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C105" s="12">
-        <f t="shared" si="3"/>
-        <v>671.4</v>
-      </c>
-      <c r="D105" s="12">
-        <f t="shared" si="2"/>
-        <v>19.432000000000009</v>
-      </c>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="L105" s="14"/>
-      <c r="M105" s="6"/>
-      <c r="N105" s="6"/>
-    </row>
-    <row r="106" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C106" s="12">
-        <f t="shared" si="3"/>
-        <v>839.25</v>
-      </c>
-      <c r="D106" s="12">
-        <f t="shared" si="2"/>
-        <v>24.467500000000008</v>
-      </c>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="L106" s="14"/>
-      <c r="M106" s="6"/>
-      <c r="N106" s="6"/>
-    </row>
-    <row r="107" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C107" s="12">
-        <f t="shared" si="3"/>
-        <v>1007.1</v>
-      </c>
-      <c r="D107" s="12">
-        <f t="shared" si="2"/>
-        <v>29.503000000000007</v>
-      </c>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="L107" s="14"/>
-      <c r="M107" s="6"/>
-      <c r="N107" s="6"/>
-    </row>
-    <row r="108" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C108" s="12">
-        <f t="shared" si="3"/>
-        <v>1174.95</v>
-      </c>
-      <c r="D108" s="12">
-        <f t="shared" si="2"/>
-        <v>34.538500000000006</v>
-      </c>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="6"/>
-      <c r="N108" s="6"/>
-    </row>
-    <row r="109" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C109" s="12">
-        <f t="shared" si="3"/>
-        <v>1342.8</v>
-      </c>
-      <c r="D109" s="12">
-        <f t="shared" si="2"/>
-        <v>39.574000000000005</v>
-      </c>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="L109" s="14"/>
-      <c r="M109" s="6"/>
-      <c r="N109" s="6"/>
-    </row>
-    <row r="110" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C110" s="12">
-        <f t="shared" si="3"/>
-        <v>1510.6499999999999</v>
-      </c>
-      <c r="D110" s="12">
-        <f t="shared" si="2"/>
-        <v>44.609500000000004</v>
-      </c>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="L110" s="14"/>
-      <c r="M110" s="6"/>
-      <c r="N110" s="6"/>
-    </row>
-    <row r="111" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C111" s="12">
-        <f t="shared" si="3"/>
-        <v>1678.4999999999998</v>
-      </c>
-      <c r="D111" s="12">
-        <f t="shared" si="2"/>
-        <v>49.645000000000003</v>
-      </c>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="L111" s="14"/>
-      <c r="M111" s="6"/>
-      <c r="N111" s="6"/>
-    </row>
-    <row r="112" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C112" s="12">
-        <f t="shared" si="3"/>
-        <v>1846.3499999999997</v>
-      </c>
-      <c r="D112" s="12">
-        <f t="shared" si="2"/>
-        <v>54.680500000000002</v>
-      </c>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="L112" s="14"/>
-      <c r="M112" s="6"/>
-      <c r="N112" s="6"/>
-    </row>
-    <row r="113" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C113" s="12">
-        <f t="shared" si="3"/>
-        <v>2014.1999999999996</v>
-      </c>
-      <c r="D113" s="12">
-        <f t="shared" si="2"/>
-        <v>59.716000000000001</v>
-      </c>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="L113" s="14"/>
-      <c r="M113" s="6"/>
-      <c r="N113" s="6"/>
-    </row>
-    <row r="114" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C114" s="12">
-        <f t="shared" si="3"/>
-        <v>2182.0499999999997</v>
-      </c>
-      <c r="D114" s="12">
-        <f t="shared" si="2"/>
-        <v>64.751500000000007</v>
-      </c>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="L114" s="14"/>
-      <c r="M114" s="6"/>
-      <c r="N114" s="6"/>
-    </row>
-    <row r="115" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C115" s="12">
-        <f t="shared" si="3"/>
-        <v>2349.8999999999996</v>
-      </c>
-      <c r="D115" s="12">
-        <f t="shared" si="2"/>
-        <v>69.787000000000006</v>
-      </c>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="L115" s="14"/>
-      <c r="M115" s="6"/>
-      <c r="N115" s="6"/>
-    </row>
-    <row r="116" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B116" t="s">
-        <v>31</v>
-      </c>
-      <c r="C116" s="12">
-        <f t="shared" si="3"/>
-        <v>2517.7499999999995</v>
-      </c>
-      <c r="D116" s="12">
-        <f t="shared" si="2"/>
-        <v>74.822500000000005</v>
-      </c>
-      <c r="E116" s="6"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="15"/>
-      <c r="K116" s="15"/>
-      <c r="L116" s="16"/>
-      <c r="M116" s="6"/>
-      <c r="N116" s="14"/>
-    </row>
-    <row r="117" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C117" s="12">
-        <f t="shared" si="3"/>
-        <v>2685.5999999999995</v>
-      </c>
-      <c r="D117" s="12">
-        <f t="shared" si="2"/>
-        <v>79.858000000000004</v>
-      </c>
-      <c r="E117" s="6"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="6"/>
-      <c r="M117" s="6"/>
-    </row>
-    <row r="118" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C118" s="12">
-        <f t="shared" si="3"/>
-        <v>2853.4499999999994</v>
-      </c>
-      <c r="D118" s="12">
-        <f t="shared" si="2"/>
-        <v>84.893500000000003</v>
-      </c>
-      <c r="E118" s="6"/>
-      <c r="F118" s="14"/>
-      <c r="M118" s="6"/>
-    </row>
-    <row r="119" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C119" s="12">
-        <f t="shared" si="3"/>
-        <v>3021.2999999999993</v>
-      </c>
-      <c r="D119" s="12">
-        <f t="shared" si="2"/>
-        <v>89.929000000000002</v>
-      </c>
-      <c r="E119" s="6"/>
-      <c r="F119" s="14"/>
-      <c r="M119" s="6"/>
-    </row>
-    <row r="120" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C120" s="12">
-        <f t="shared" si="3"/>
-        <v>3189.1499999999992</v>
-      </c>
-      <c r="D120" s="12">
-        <f t="shared" si="2"/>
-        <v>94.964500000000001</v>
-      </c>
-      <c r="E120" s="6"/>
-      <c r="F120" s="14"/>
-      <c r="M120" s="6"/>
-    </row>
-    <row r="121" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C121" s="12">
-        <f t="shared" si="3"/>
-        <v>3356.9999999999991</v>
-      </c>
-      <c r="D121" s="12">
-        <f>Tres_</f>
-        <v>100</v>
-      </c>
-      <c r="E121" s="6"/>
-      <c r="F121" s="13">
-        <f>Pwf1_</f>
-        <v>30</v>
-      </c>
-      <c r="M121" s="6"/>
-    </row>
-    <row r="122" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="123" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="183" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L183" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="194" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L194" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/excercises/excercises/120.self_flow_well_with_ESP.xlsx
+++ b/excercises/excercises/120.self_flow_well_with_ESP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C24BA52-4445-4E97-A206-9C5C29F0EB87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13CE51A-6E06-4CF8-9D0C-6075477122B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,13 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>Частота</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="86">
   <si>
     <t>атм</t>
   </si>
@@ -167,28 +161,10 @@
     <t>Давление в НКТ сверху вниз</t>
   </si>
   <si>
-    <t>Перепад давления в насосе</t>
-  </si>
-  <si>
-    <t>Давление в НКТ</t>
-  </si>
-  <si>
-    <t>Давление затруб</t>
-  </si>
-  <si>
     <t>Глубина установки насоса</t>
   </si>
   <si>
-    <t>Построить распределение давления для скважины с постоянной продуктивностью</t>
-  </si>
-  <si>
-    <t>Pзаб</t>
-  </si>
-  <si>
     <t>Ксепарации естественной</t>
-  </si>
-  <si>
-    <t>Упражнение 2</t>
   </si>
   <si>
     <t>Упражнение 1</t>
@@ -785,9 +761,6 @@
     <t>d_annular</t>
   </si>
   <si>
-    <t>Давление в затрубе сверху вниз</t>
-  </si>
-  <si>
     <t>Давление в затрубе снизу вверх</t>
   </si>
   <si>
@@ -803,7 +776,7 @@
     <t>Qtotal</t>
   </si>
   <si>
-    <t>Коэффициент деления жидкости - доля в НКТ</t>
+    <t>Коэффициент деления потока ГЖС - доля в НКТ</t>
   </si>
 </sst>
 </file>
@@ -927,12 +900,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -970,6 +937,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,7 +1036,7 @@
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1072,42 +1045,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1116,76 +1067,96 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Iau?iue_AA_1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2162,815 +2133,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Распределение</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> давления в скважине</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>P снизу вверх</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>well!$F$101:$F$121</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>well!$C$101:$C$121</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2A30-4962-9B53-F3495E0C2214}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Давление в НКТ</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>well!$L$101:$L$121</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>well!$C$101:$C$121</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2A30-4962-9B53-F3495E0C2214}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Давление затруб</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>well!$N$101:$N$121</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>well!$C$101:$C$121</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2A30-4962-9B53-F3495E0C2214}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="304307520"/>
-        <c:axId val="304005120"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="304307520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="t"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Давление,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> атм</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="304005120"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="304005120"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Глубина,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> м</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="304307520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3526,536 +2689,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>34018</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>122462</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>170089</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>54426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>54427</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>149677</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4082,44 +2729,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>176893</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>639535</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Диаграмма 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4139,7 +2748,6 @@
       <definedName name="ESP_name"/>
       <definedName name="getUFVersion"/>
       <definedName name="IPR_PI_sm3dayatm"/>
-      <definedName name="IPR_Qliq_sm3Day"/>
       <definedName name="MF_gas_fraction_d"/>
       <definedName name="MF_ksep_natural_d"/>
       <definedName name="MF_ksep_total_d"/>
@@ -4454,10 +3062,10 @@
   <sheetPr codeName="Worksheet_well">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P194"/>
+  <dimension ref="A1:X194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -4475,10 +3083,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
@@ -4487,154 +3095,154 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="17" t="s">
-        <v>40</v>
+      <c r="B7" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="C7" s="2">
         <v>0.87</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19">
+      <c r="D7" s="11"/>
+      <c r="E7" s="12">
         <f>gamma_oil_*1000</f>
         <v>870</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>41</v>
+      <c r="F7" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="20" t="s">
-        <v>42</v>
+      <c r="B8" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19">
+      <c r="D8" s="11"/>
+      <c r="E8" s="12">
         <f>gamma_wat_*1000</f>
         <v>1000</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>41</v>
+      <c r="F8" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="20" t="s">
-        <v>43</v>
+      <c r="B9" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="2">
         <v>0.8</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19">
+      <c r="D9" s="11"/>
+      <c r="E9" s="12">
         <f>gamma_gas_*1.22</f>
         <v>0.97599999999999998</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>41</v>
+      <c r="F9" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="21" t="s">
-        <v>44</v>
+      <c r="B10" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C10" s="2">
         <v>200</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="22">
+      <c r="D10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="15">
         <f>Rsb_/gamma_oil_</f>
         <v>229.88505747126436</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>46</v>
+      <c r="F10" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="21" t="s">
-        <v>47</v>
+      <c r="B11" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="C11" s="2">
         <v>200</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="22">
+      <c r="D11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="15">
         <f>Rsb_/gamma_oil_</f>
         <v>229.88505747126436</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>46</v>
+      <c r="F11" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="20" t="s">
-        <v>48</v>
+      <c r="B12" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="C12" s="2">
         <v>130</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="22">
+      <c r="D12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="15">
         <f>Pb_*1.01325</f>
         <v>131.7225</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>50</v>
+      <c r="F12" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="20" t="s">
-        <v>51</v>
+      <c r="B13" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="C13" s="2">
         <v>100</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="22">
+      <c r="D13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15">
         <f>Tres_*9/5+32</f>
         <v>212</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>52</v>
+      <c r="F13" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="21" t="s">
-        <v>53</v>
+      <c r="B14" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="C14" s="2">
         <v>1.2</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>45</v>
+      <c r="D14" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="B15" s="28" t="s">
-        <v>82</v>
+      <c r="B15" s="21" t="s">
+        <v>74</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>83</v>
+      <c r="D15" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -4643,972 +3251,930 @@
     </row>
     <row r="17" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="23" t="s">
-        <v>54</v>
+      <c r="B18" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C18" s="2">
         <v>2000</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>5</v>
+      <c r="D18" s="17" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
-        <v>55</v>
+      <c r="B19" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>5</v>
+      <c r="D19" s="17" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="23" t="s">
-        <v>56</v>
+      <c r="B20" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="C20" s="2">
         <v>1500</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>5</v>
+      <c r="D20" s="17" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="23" t="s">
-        <v>57</v>
+      <c r="B21" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="C21" s="2">
         <v>125</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>6</v>
+      <c r="D21" s="17" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="23" t="s">
-        <v>58</v>
+      <c r="B22" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="C22" s="2">
         <v>73</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>6</v>
+      <c r="D22" s="17" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="30" t="s">
-        <v>84</v>
+      <c r="B23" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="C23" s="2">
         <v>90</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>85</v>
+      <c r="D23" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="23" t="s">
-        <v>59</v>
+      <c r="B24" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="C24" s="2">
         <f>Dtub_out_-10</f>
         <v>63</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>6</v>
+      <c r="D24" s="17" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="23" t="s">
-        <v>60</v>
+      <c r="B25" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="C25" s="2">
         <v>100</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>6</v>
+      <c r="D25" s="17" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="23" t="s">
-        <v>61</v>
+      <c r="B26" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="C26" s="2">
         <v>20</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>2</v>
+      <c r="D26" s="17" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="23" t="s">
-        <v>62</v>
+      <c r="B27" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="C27" s="2">
         <f>PKsep</f>
         <v>35.590000000000003</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>2</v>
+      <c r="D27" s="17" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="23" t="s">
-        <v>63</v>
+      <c r="B28" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="C28" s="2">
         <f>TKsep</f>
         <v>85</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>3</v>
+      <c r="D28" s="17" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="23" t="s">
-        <v>64</v>
+      <c r="B29" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="C29" s="2">
         <v>150</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>2</v>
+      <c r="D29" s="17" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="23" t="s">
-        <v>93</v>
+      <c r="B30" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="C30" s="2">
         <v>100</v>
       </c>
-      <c r="D30" s="24" t="s">
-        <v>7</v>
+      <c r="D30" s="17" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="23" t="s">
-        <v>65</v>
+      <c r="B31" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="C31" s="2">
         <v>75</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>2</v>
+      <c r="D31" s="17" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B32" s="23" t="s">
-        <v>66</v>
+      <c r="B32" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="C32" s="2">
         <f>Q_total_*k_split_liquid</f>
         <v>65</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>7</v>
+      <c r="D32" s="17" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="23" t="s">
-        <v>67</v>
+      <c r="B33" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
       </c>
-      <c r="D33" s="24" t="s">
-        <v>4</v>
+      <c r="D33" s="17" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="23" t="s">
-        <v>86</v>
+      <c r="B34" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="C34" s="2">
         <f>Q_total_*(1-k_split_liquid)</f>
         <v>35</v>
       </c>
-      <c r="D34" s="24" t="s">
-        <v>7</v>
+      <c r="D34" s="17" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="45">
+      <c r="B35" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="34">
         <f>Dcas_-Dtub_out_</f>
         <v>52</v>
       </c>
-      <c r="D35" s="24"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="24" t="s">
-        <v>68</v>
+      <c r="B38" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="C38" s="2">
         <v>100</v>
       </c>
-      <c r="D38" s="24" t="s">
-        <v>7</v>
+      <c r="D38" s="17" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="24" t="s">
-        <v>69</v>
+      <c r="B39" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="C39" s="2">
         <v>2000</v>
       </c>
-      <c r="D39" s="24" t="s">
-        <v>8</v>
+      <c r="D39" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="24" t="s">
-        <v>70</v>
+      <c r="B40" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="C40" s="2">
         <v>50</v>
       </c>
-      <c r="D40" s="24" t="s">
-        <v>9</v>
+      <c r="D40" s="17" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="19">
+      <c r="B41" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="12">
         <f>[1]!ESP_id_by_rate(Q_ESP_)</f>
         <v>737</v>
       </c>
-      <c r="D41" s="24"/>
-      <c r="G41" s="25" t="s">
-        <v>72</v>
+      <c r="D41" s="17"/>
+      <c r="G41" s="18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="19" t="str">
+      <c r="B42" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="12" t="str">
         <f>[1]!ESP_name(C41)</f>
         <v>ВНН5-125</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="G42" s="26" t="str">
+      <c r="D42" s="17"/>
+      <c r="G42" s="19" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,mu_,,KsepGasSep_,PKsep,TKsep)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:200,000;rp_m3m3:200,000;pb_atma:130,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:5,000;PVTcorr:0;ksep_fr:0,950;pksep_atma:35,590;tksep_C:85,000;</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="19">
+      <c r="B43" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="12">
         <f>[1]!esp_max_rate_m3day(Freq_,PumpID_)*1</f>
         <v>230</v>
       </c>
-      <c r="D43" s="24"/>
+      <c r="D43" s="17"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="19">
+      <c r="B44" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="12">
         <f>INT(Head_ESP_/[1]!ESP_head_m(Q_ESP_,1,,PumpID_))</f>
         <v>312</v>
       </c>
-      <c r="D44" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>75</v>
+      <c r="D44" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B45" s="24" t="s">
-        <v>76</v>
+      <c r="B45" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="C45" s="5">
         <v>0.95</v>
       </c>
-      <c r="D45" s="24"/>
-      <c r="G45" s="26" t="str">
+      <c r="D45" s="17"/>
+      <c r="G45" s="19" t="str">
         <f>[1]!ESP_Encode_string(PumpID_,Head_ESP_,Freq_)</f>
         <v>ESP_ID:737,00000;HeadNom_m:2000,00000;ESPfreq_Hz:50,00000;ESP_U_V:1000,00000;MotorPowerNom_kW:30,00000;Tintake_C:85,00000;Tdis_C:85,00000;KsepGS_fr:0,00000;ESP_energy_fact_Whday:0,00000;ESP_cable_type:0;ESP_Hmes_m:0,00000;GasDegtType:0;Kdegr:0,00000;PKV_work_min:-1,00000;PKV_stop_min:-1,00000;</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B46" s="24" t="s">
-        <v>77</v>
+      <c r="B46" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="C46" s="8">
         <v>35.590000000000003</v>
       </c>
-      <c r="D46" s="24" t="s">
-        <v>2</v>
+      <c r="D46" s="17" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B47" s="24" t="s">
-        <v>78</v>
+      <c r="B47" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="C47" s="8">
         <f>D81</f>
         <v>85</v>
       </c>
-      <c r="D47" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="25" t="s">
-        <v>72</v>
+      <c r="D47" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G48" s="26" t="str">
+      <c r="G48" s="19" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,mu_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:200,000;rp_m3m3:200,000;pb_atma:130,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:5,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B50" s="24" t="s">
-        <v>79</v>
+      <c r="B50" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="C50" s="2">
         <v>250</v>
       </c>
-      <c r="D50" s="24" t="s">
-        <v>2</v>
+      <c r="D50" s="17" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B51" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="27">
+      <c r="B51" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="20">
         <f>[1]!IPR_PI_sm3dayatm(Q_,Pwf_,Pres_,fw_,Pb_)</f>
         <v>0.39475733194913054</v>
       </c>
-      <c r="D51" s="24" t="s">
-        <v>11</v>
+      <c r="D51" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="24" t="s">
-        <v>81</v>
+      <c r="B52" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="C52" s="2">
         <v>3</v>
       </c>
-      <c r="D52" s="24" t="s">
-        <v>12</v>
+      <c r="D52" s="17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B55" s="18" t="s">
-        <v>13</v>
+      <c r="B55" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="C55" s="2">
         <v>20</v>
       </c>
-      <c r="D55" s="18"/>
+      <c r="D55" s="11"/>
     </row>
     <row r="59" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C63" t="s">
-        <v>26</v>
-      </c>
-      <c r="D63" s="9">
+      <c r="C63" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="2">
         <v>0.5</v>
       </c>
-      <c r="G63" t="s">
-        <v>94</v>
-      </c>
-      <c r="L63" s="46">
+      <c r="G63" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="44">
         <v>0.65</v>
       </c>
     </row>
     <row r="64" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="65" spans="3:16" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="31" t="s">
+      <c r="C65" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K65" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="L65" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G65" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H65" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I65" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="J65" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="K65" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="L65" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M65" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="N65" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="O65" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="P65" s="31" t="s">
-        <v>88</v>
-      </c>
+      <c r="M65" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="N65" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="O65" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P65" s="42"/>
     </row>
     <row r="66" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="33">
+      <c r="C66" s="26">
         <v>0</v>
       </c>
-      <c r="D66" s="33">
+      <c r="D66" s="26">
         <f t="shared" ref="D66:D85" si="0">D67-Tgrad*(C67-C66)/100</f>
         <v>40</v>
       </c>
-      <c r="F66" s="27">
+      <c r="F66" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C67,C66,F67,PVT_str_,theta_,Dtub_,,D67,D66)</f>
         <v>0</v>
       </c>
       <c r="I66" s="6"/>
-      <c r="J66" s="39">
+      <c r="J66" s="32">
         <f>Pbuf_</f>
         <v>20</v>
       </c>
-      <c r="K66" s="43">
+      <c r="K66" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C67,C66,K67,PVT_str_,theta_,Dtub_,1,D67,D66)</f>
         <v>8.400014756357173</v>
       </c>
-      <c r="O66" s="6">
+      <c r="O66" s="20">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C67,C66,O67,PVT_str_annular_,theta_,d_annular_pr,1,D67,D66)</f>
         <v>9.4510445510357393</v>
       </c>
-      <c r="P66" s="6">
-        <v>1</v>
-      </c>
+      <c r="P66" s="38"/>
     </row>
     <row r="67" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="33">
+      <c r="C67" s="26">
         <f t="shared" ref="C67:C86" si="1">C66+Hmes_/N_</f>
         <v>100</v>
       </c>
-      <c r="D67" s="33">
+      <c r="D67" s="26">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="F67" s="27">
+      <c r="F67" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C68,C67,F68,PVT_str_,theta_,Dtub_,,D68,D67)</f>
         <v>0</v>
       </c>
       <c r="I67" s="6"/>
-      <c r="J67" s="27">
+      <c r="J67" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C66,C67,J66,PVT_str_,theta_,Dtub_,1,D66,D67)</f>
         <v>26.355429747824981</v>
       </c>
-      <c r="K67" s="43">
+      <c r="K67" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C68,C67,K68,PVT_str_,theta_,Dtub_,1,D68,D67)</f>
         <v>11.906102059732911</v>
       </c>
-      <c r="O67" s="6">
+      <c r="O67" s="20">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C68,C67,O68,PVT_str_annular_,theta_,d_annular_pr,1,D68,D67)</f>
         <v>10.688164610093018</v>
       </c>
-      <c r="P67" s="6">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C66,C67,P66,PVT_str_,theta_,d_annular_pr,1,D66,D67)</f>
-        <v>1.990242709133246</v>
-      </c>
+      <c r="P67" s="38"/>
     </row>
     <row r="68" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="33">
+      <c r="C68" s="26">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="D68" s="33">
+      <c r="D68" s="26">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="F68" s="27">
+      <c r="F68" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C69,C68,F69,PVT_str_,theta_,Dtub_,,D69,D68)</f>
         <v>0</v>
       </c>
       <c r="I68" s="6"/>
-      <c r="J68" s="27">
+      <c r="J68" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C67,C68,J67,PVT_str_,theta_,Dtub_,1,D67,D68)</f>
         <v>33.750712642375831</v>
       </c>
-      <c r="K68" s="43">
+      <c r="K68" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C69,C68,K69,PVT_str_,theta_,Dtub_,1,D69,D68)</f>
         <v>16.495198559161292</v>
       </c>
-      <c r="O68" s="6">
+      <c r="O68" s="20">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C69,C68,O69,PVT_str_annular_,theta_,d_annular_pr,1,D69,D68)</f>
         <v>11.961770493381993</v>
       </c>
-      <c r="P68" s="6">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C67,C68,P67,PVT_str_,theta_,d_annular_pr,1,D67,D68)</f>
-        <v>3.1919909078884521</v>
-      </c>
+      <c r="P68" s="38"/>
     </row>
     <row r="69" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="33">
+      <c r="C69" s="26">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="D69" s="33">
+      <c r="D69" s="26">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="F69" s="27">
+      <c r="F69" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C70,C69,F70,PVT_str_,theta_,Dtub_,,D70,D69)</f>
         <v>0</v>
       </c>
       <c r="I69" s="6"/>
-      <c r="J69" s="27">
+      <c r="J69" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C68,C69,J68,PVT_str_,theta_,Dtub_,1,D68,D69)</f>
         <v>42.030357431659887</v>
       </c>
-      <c r="K69" s="43">
+      <c r="K69" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C70,C69,K70,PVT_str_,theta_,Dtub_,1,D70,D69)</f>
         <v>22.05973635292721</v>
       </c>
-      <c r="O69" s="6">
+      <c r="O69" s="20">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C70,C69,O70,PVT_str_annular_,theta_,d_annular_pr,1,D70,D69)</f>
         <v>13.281024796911447</v>
       </c>
-      <c r="P69" s="6">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C68,C69,P68,PVT_str_,theta_,d_annular_pr,1,D68,D69)</f>
-        <v>4.743732706527954</v>
-      </c>
+      <c r="P69" s="38"/>
     </row>
     <row r="70" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="33">
+      <c r="C70" s="26">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="D70" s="33">
+      <c r="D70" s="26">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="F70" s="27">
+      <c r="F70" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C71,C70,F71,PVT_str_,theta_,Dtub_,,D71,D70)</f>
         <v>0</v>
       </c>
       <c r="I70" s="6"/>
-      <c r="J70" s="27">
+      <c r="J70" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C69,C70,J69,PVT_str_,theta_,Dtub_,1,D69,D70)</f>
         <v>50.468294435791449</v>
       </c>
-      <c r="K70" s="43">
+      <c r="K70" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C71,C70,K71,PVT_str_,theta_,Dtub_,1,D71,D70)</f>
         <v>28.627450164839701</v>
       </c>
-      <c r="O70" s="6">
+      <c r="O70" s="20">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C71,C70,O71,PVT_str_annular_,theta_,d_annular_pr,1,D71,D70)</f>
         <v>14.653424813529455</v>
       </c>
-      <c r="P70" s="6">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C69,C70,P69,PVT_str_,theta_,d_annular_pr,1,D69,D70)</f>
-        <v>6.7617262772576296</v>
-      </c>
+      <c r="P70" s="38"/>
     </row>
     <row r="71" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="33">
+      <c r="C71" s="26">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="D71" s="33">
+      <c r="D71" s="26">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="F71" s="27">
+      <c r="F71" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C72,C71,F72,PVT_str_,theta_,Dtub_,,D72,D71)</f>
         <v>0</v>
       </c>
       <c r="I71" s="6"/>
-      <c r="J71" s="27">
+      <c r="J71" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C70,C71,J70,PVT_str_,theta_,Dtub_,1,D70,D71)</f>
         <v>58.910221490484425</v>
       </c>
-      <c r="K71" s="43">
+      <c r="K71" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C72,C71,K72,PVT_str_,theta_,Dtub_,1,D72,D71)</f>
         <v>36.175965345018497</v>
       </c>
-      <c r="O71" s="6">
+      <c r="O71" s="20">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C72,C71,O72,PVT_str_annular_,theta_,d_annular_pr,1,D72,D71)</f>
         <v>16.085379400373021</v>
       </c>
-      <c r="P71" s="6">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C70,C71,P70,PVT_str_,theta_,d_annular_pr,1,D70,D71)</f>
-        <v>9.361565310946224</v>
-      </c>
+      <c r="P71" s="38"/>
     </row>
     <row r="72" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="33">
+      <c r="C72" s="26">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="D72" s="33">
+      <c r="D72" s="26">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="F72" s="27">
+      <c r="F72" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C73,C72,F73,PVT_str_,theta_,Dtub_,,D73,D72)</f>
         <v>0</v>
       </c>
       <c r="I72" s="6"/>
-      <c r="J72" s="27">
+      <c r="J72" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C71,C72,J71,PVT_str_,theta_,Dtub_,1,D71,D72)</f>
         <v>67.354394106571633</v>
       </c>
-      <c r="K72" s="43">
+      <c r="K72" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C73,C72,K73,PVT_str_,theta_,Dtub_,1,D73,D72)</f>
         <v>44.502865741139232</v>
       </c>
-      <c r="O72" s="6">
+      <c r="O72" s="20">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C73,C72,O73,PVT_str_annular_,theta_,d_annular_pr,1,D73,D72)</f>
         <v>17.5825510459714</v>
       </c>
-      <c r="P72" s="6">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C71,C72,P71,PVT_str_,theta_,d_annular_pr,1,D71,D72)</f>
-        <v>13.338698112381273</v>
-      </c>
+      <c r="P72" s="38"/>
     </row>
     <row r="73" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="33">
+      <c r="C73" s="26">
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="D73" s="33">
+      <c r="D73" s="26">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="F73" s="27">
+      <c r="F73" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C74,C73,F74,PVT_str_,theta_,Dtub_,,D74,D73)</f>
         <v>1.559118634191879</v>
       </c>
       <c r="I73" s="6"/>
-      <c r="J73" s="27">
+      <c r="J73" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C72,C73,J72,PVT_str_,theta_,Dtub_,1,D72,D73)</f>
         <v>75.799680802821129</v>
       </c>
-      <c r="K73" s="43">
+      <c r="K73" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C74,C73,K74,PVT_str_,theta_,Dtub_,1,D74,D73)</f>
         <v>52.916550759989882</v>
       </c>
-      <c r="O73" s="6">
+      <c r="O73" s="20">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C74,C73,O74,PVT_str_annular_,theta_,d_annular_pr,1,D74,D73)</f>
         <v>19.15006721971168</v>
       </c>
-      <c r="P73" s="6">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C72,C73,P72,PVT_str_,theta_,d_annular_pr,1,D72,D73)</f>
-        <v>18.230074103601346</v>
-      </c>
+      <c r="P73" s="38"/>
     </row>
     <row r="74" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="33">
+      <c r="C74" s="26">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="D74" s="33">
+      <c r="D74" s="26">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="F74" s="27">
+      <c r="F74" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C75,C74,F75,PVT_str_,theta_,Dtub_,,D75,D74)</f>
         <v>3.488927744877127</v>
       </c>
       <c r="I74" s="6"/>
-      <c r="J74" s="27">
+      <c r="J74" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C73,C74,J73,PVT_str_,theta_,Dtub_,1,D73,D74)</f>
         <v>84.245303566030188</v>
       </c>
-      <c r="K74" s="43">
+      <c r="K74" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C75,C74,K75,PVT_str_,theta_,Dtub_,1,D75,D74)</f>
         <v>61.336074092289977</v>
       </c>
-      <c r="O74" s="6">
+      <c r="O74" s="20">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C75,C74,O75,PVT_str_annular_,theta_,d_annular_pr,1,D75,D74)</f>
         <v>20.792654519507614</v>
       </c>
-      <c r="P74" s="6">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C73,C74,P73,PVT_str_,theta_,d_annular_pr,1,D73,D74)</f>
-        <v>24.050391996760837</v>
-      </c>
+      <c r="P74" s="38"/>
     </row>
     <row r="75" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="33">
+      <c r="C75" s="26">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="D75" s="33">
+      <c r="D75" s="26">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="F75" s="27">
+      <c r="F75" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C76,C75,F76,PVT_str_,theta_,Dtub_,,D76,D75)</f>
         <v>5.9995033143006324</v>
       </c>
       <c r="I75" s="6"/>
-      <c r="J75" s="27">
+      <c r="J75" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C74,C75,J74,PVT_str_,theta_,Dtub_,1,D74,D75)</f>
         <v>92.690702493771497</v>
       </c>
-      <c r="K75" s="43">
+      <c r="K75" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C76,C75,K76,PVT_str_,theta_,Dtub_,1,D76,D75)</f>
         <v>69.759268961025313</v>
       </c>
-      <c r="O75" s="6">
+      <c r="O75" s="20">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C76,C75,O76,PVT_str_annular_,theta_,d_annular_pr,1,D76,D75)</f>
         <v>22.514724967627604</v>
       </c>
-      <c r="P75" s="6">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C74,C75,P74,PVT_str_,theta_,d_annular_pr,1,D74,D75)</f>
-        <v>30.80831911642596</v>
-      </c>
+      <c r="P75" s="38"/>
     </row>
     <row r="76" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="33">
+      <c r="C76" s="26">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="D76" s="33">
+      <c r="D76" s="26">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="F76" s="27">
+      <c r="F76" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C77,C76,F77,PVT_str_,theta_,Dtub_,,D77,D76)</f>
         <v>9.1562275980625714</v>
       </c>
       <c r="I76" s="6"/>
-      <c r="J76" s="27">
+      <c r="J76" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C75,C76,J75,PVT_str_,theta_,Dtub_,1,D75,D76)</f>
         <v>101.13545953833881</v>
       </c>
-      <c r="K76" s="43">
+      <c r="K76" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C77,C76,K77,PVT_str_,theta_,Dtub_,1,D77,D76)</f>
         <v>78.184703293048287</v>
       </c>
-      <c r="O76" s="6">
+      <c r="O76" s="20">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C77,C76,O77,PVT_str_annular_,theta_,d_annular_pr,1,D77,D76)</f>
         <v>24.320431434753978</v>
       </c>
-      <c r="P76" s="6">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C75,C76,P75,PVT_str_,theta_,d_annular_pr,1,D75,D76)</f>
-        <v>38.427376611503753</v>
-      </c>
+      <c r="P76" s="38"/>
     </row>
     <row r="77" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="33">
+      <c r="C77" s="26">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
-      <c r="D77" s="33">
+      <c r="D77" s="26">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="F77" s="27">
+      <c r="F77" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C78,C77,F78,PVT_str_,theta_,Dtub_,,D78,D77)</f>
         <v>12.980350073113867</v>
       </c>
       <c r="I77" s="6"/>
-      <c r="J77" s="27">
+      <c r="J77" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C76,C77,J76,PVT_str_,theta_,Dtub_,1,D76,D77)</f>
         <v>109.57925287375804</v>
       </c>
-      <c r="K77" s="43">
+      <c r="K77" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C78,C77,K78,PVT_str_,theta_,Dtub_,1,D78,D77)</f>
         <v>86.611379153403249</v>
       </c>
-      <c r="O77" s="6">
+      <c r="O77" s="20">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C78,C77,O78,PVT_str_annular_,theta_,d_annular_pr,1,D78,D77)</f>
         <v>26.213702477787681</v>
       </c>
-      <c r="P77" s="6">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C76,C77,P76,PVT_str_,theta_,d_annular_pr,1,D76,D77)</f>
-        <v>46.699505933927931</v>
-      </c>
+      <c r="P77" s="38"/>
     </row>
     <row r="78" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="33">
+      <c r="C78" s="26">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="D78" s="33">
+      <c r="D78" s="26">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="F78" s="27">
+      <c r="F78" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C79,C78,F79,PVT_str_,theta_,Dtub_,,D79,D78)</f>
         <v>17.472182316169523</v>
       </c>
       <c r="I78" s="6"/>
-      <c r="J78" s="27">
+      <c r="J78" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C77,C78,J77,PVT_str_,theta_,Dtub_,1,D77,D78)</f>
         <v>118.02182822841964</v>
       </c>
-      <c r="K78" s="43">
+      <c r="K78" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C79,C78,K79,PVT_str_,theta_,Dtub_,1,D79,D78)</f>
         <v>95.038571577726231</v>
       </c>
-      <c r="O78" s="6">
+      <c r="O78" s="20">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C79,C78,O79,PVT_str_annular_,theta_,d_annular_pr,1,D79,D78)</f>
         <v>28.198263083734599</v>
       </c>
-      <c r="P78" s="6">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C77,C78,P77,PVT_str_,theta_,d_annular_pr,1,D77,D78)</f>
-        <v>55.060979174403698</v>
-      </c>
+      <c r="P78" s="38"/>
     </row>
     <row r="79" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="33">
+      <c r="C79" s="26">
         <f t="shared" si="1"/>
         <v>1300</v>
       </c>
-      <c r="D79" s="33">
+      <c r="D79" s="26">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="F79" s="27">
+      <c r="F79" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C80,C79,F80,PVT_str_,theta_,Dtub_,,D80,D79)</f>
         <v>22.616421007014264</v>
       </c>
       <c r="I79" s="6"/>
-      <c r="J79" s="27">
+      <c r="J79" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C78,C79,J78,PVT_str_,theta_,Dtub_,1,D78,D79)</f>
         <v>126.4629801404637</v>
       </c>
-      <c r="K79" s="43">
+      <c r="K79" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C80,C79,K80,PVT_str_,theta_,Dtub_,1,D80,D79)</f>
         <v>103.4657358054951</v>
       </c>
-      <c r="O79" s="6">
+      <c r="O79" s="20">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C80,C79,O80,PVT_str_annular_,theta_,d_annular_pr,1,D80,D79)</f>
         <v>30.277645578963494</v>
       </c>
-      <c r="P79" s="6">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C78,C79,P78,PVT_str_,theta_,d_annular_pr,1,D78,D79)</f>
-        <v>63.431984039740094</v>
-      </c>
+      <c r="P79" s="38"/>
     </row>
     <row r="80" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="33">
+      <c r="C80" s="26">
         <f t="shared" si="1"/>
         <v>1400</v>
       </c>
-      <c r="D80" s="33">
+      <c r="D80" s="26">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="F80" s="27">
+      <c r="F80" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C81,C80,F81,PVT_str_,theta_,Dtub_,,D81,D80)</f>
         <v>28.384150575196287</v>
       </c>
       <c r="I80" s="6"/>
-      <c r="J80" s="27">
+      <c r="J80" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C79,C80,J79,PVT_str_,theta_,Dtub_,1,D79,D80)</f>
         <v>134.90035853909339</v>
       </c>
-      <c r="K80" s="43">
+      <c r="K80" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C81,C80,K81,PVT_str_,theta_,Dtub_,1,D81,D80)</f>
         <v>111.89245080709286</v>
       </c>
-      <c r="O80" s="6">
+      <c r="O80" s="20">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C81,C80,O81,PVT_str_annular_,theta_,d_annular_pr,1,D81,D80)</f>
         <v>32.455193605249896</v>
       </c>
-      <c r="P80" s="6">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C79,C80,P79,PVT_str_,theta_,d_annular_pr,1,D79,D80)</f>
-        <v>71.809552255680188</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C81" s="33">
+      <c r="P80" s="38"/>
+    </row>
+    <row r="81" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="26">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="D81" s="33">
+      <c r="D81" s="26">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="F81" s="27">
+      <c r="F81" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C82,C81,F82,PVT_str_,theta_,Dtub_,,D82,D81)</f>
         <v>34.734061214655505</v>
       </c>
-      <c r="G81" s="26">
+      <c r="G81" s="19">
         <f>[1]!MF_ksep_natural_d(Q_,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
         <v>0.62937823051219122</v>
       </c>
-      <c r="H81" s="26">
+      <c r="H81" s="19">
         <f>[1]!MF_ksep_total_d(G81,KsepGasSep_)</f>
         <v>0.98146891152560956</v>
       </c>
-      <c r="I81" s="37">
+      <c r="I81" s="30">
         <f>[1]!MF_gas_fraction_d(F81,D81,fw_,PVT_str_)</f>
         <v>0.23339857723202256</v>
       </c>
-      <c r="J81" s="27">
+      <c r="J81" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C80,C81,J80,PVT_str_,theta_,Dtub_,1,D80,D81)</f>
         <v>143.33106609414344</v>
       </c>
-      <c r="K81" s="44">
+      <c r="K81" s="33">
         <f>M81+F81</f>
         <v>120.3183833052079</v>
       </c>
       <c r="L81" s="40"/>
-      <c r="M81" s="26">
+      <c r="M81" s="19">
         <f>[1]!ESP_dP_atm(Q_,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVT_str_,Tintake_,0,1,,D63)</f>
         <v>85.584322090552405</v>
       </c>
@@ -5616,23 +4182,23 @@
         <f>J81-F81</f>
         <v>108.59700487948794</v>
       </c>
-      <c r="O81" s="39">
+      <c r="O81" s="32">
         <f>F81</f>
         <v>34.734061214655505</v>
       </c>
-      <c r="P81" s="40"/>
-    </row>
-    <row r="82" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C82" s="33">
+      <c r="P81" s="43"/>
+    </row>
+    <row r="82" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C82" s="26">
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
-      <c r="D82" s="33">
+      <c r="D82" s="26">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E82" s="6"/>
-      <c r="F82" s="35">
+      <c r="F82" s="28">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C83,C82,F83,PVT_str_,theta_,Dtub_,,D83,D82)</f>
         <v>41.822257074525695</v>
       </c>
@@ -5640,17 +4206,17 @@
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
     </row>
-    <row r="83" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C83" s="33">
+    <row r="83" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="26">
         <f t="shared" si="1"/>
         <v>1700</v>
       </c>
-      <c r="D83" s="33">
+      <c r="D83" s="26">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="E83" s="6"/>
-      <c r="F83" s="27">
+      <c r="F83" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C84,C83,F84,PVT_str_,theta_,Dtub_,,D84,D83)</f>
         <v>50.009508975175521</v>
       </c>
@@ -5658,17 +4224,17 @@
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
     </row>
-    <row r="84" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="33">
+    <row r="84" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C84" s="26">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="D84" s="33">
+      <c r="D84" s="26">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="E84" s="6"/>
-      <c r="F84" s="27">
+      <c r="F84" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C85,C84,F85,PVT_str_,theta_,Dtub_,,D85,D84)</f>
         <v>58.32796983806567</v>
       </c>
@@ -5676,17 +4242,17 @@
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
     </row>
-    <row r="85" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C85" s="33">
+    <row r="85" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="26">
         <f t="shared" si="1"/>
         <v>1900</v>
       </c>
-      <c r="D85" s="33">
+      <c r="D85" s="26">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="E85" s="6"/>
-      <c r="F85" s="27">
+      <c r="F85" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C86,C85,F86,PVT_str_,theta_,Dtub_,,D86,D85)</f>
         <v>66.659361836840532</v>
       </c>
@@ -5694,17 +4260,17 @@
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
     </row>
-    <row r="86" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C86" s="33">
+    <row r="86" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="26">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="D86" s="33">
+      <c r="D86" s="26">
         <f>Tres_</f>
         <v>100</v>
       </c>
       <c r="E86" s="6"/>
-      <c r="F86" s="34">
+      <c r="F86" s="27">
         <f>Pwf_</f>
         <v>75</v>
       </c>
@@ -5712,408 +4278,907 @@
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
     </row>
-    <row r="87" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C95" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D95" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C96" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D96" s="42">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,Pwf1_,fw_,Pb_)</f>
-        <v>73.350635868154683</v>
-      </c>
-    </row>
-    <row r="97" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C97" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D97" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="98" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="3:14" ht="51" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C100" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H100" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J100" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K100" s="11"/>
-      <c r="L100" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M100" s="11"/>
-      <c r="N100" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C101" s="12">
-        <v>0</v>
-      </c>
-      <c r="D101" s="12">
-        <f t="shared" ref="D101:D120" si="2">D102-Tgrad*(C102-C101)/100</f>
-        <v>40</v>
-      </c>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
-    </row>
-    <row r="102" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C102" s="12">
-        <f t="shared" ref="C102:C121" si="3">C101+Hmes_/N_</f>
-        <v>100</v>
-      </c>
-      <c r="D102" s="12">
-        <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
-    </row>
-    <row r="103" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C103" s="12">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="D103" s="12">
-        <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="L103" s="14"/>
-      <c r="M103" s="6"/>
-      <c r="N103" s="6"/>
-    </row>
-    <row r="104" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C104" s="12">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="D104" s="12">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="L104" s="14"/>
-      <c r="M104" s="6"/>
-      <c r="N104" s="6"/>
-    </row>
-    <row r="105" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C105" s="12">
-        <f t="shared" si="3"/>
-        <v>400</v>
-      </c>
-      <c r="D105" s="12">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="L105" s="14"/>
-      <c r="M105" s="6"/>
-      <c r="N105" s="6"/>
-    </row>
-    <row r="106" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C106" s="12">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="D106" s="12">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="L106" s="14"/>
-      <c r="M106" s="6"/>
-      <c r="N106" s="6"/>
-    </row>
-    <row r="107" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C107" s="12">
-        <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="D107" s="12">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="L107" s="14"/>
-      <c r="M107" s="6"/>
-      <c r="N107" s="6"/>
-    </row>
-    <row r="108" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C108" s="12">
-        <f t="shared" si="3"/>
-        <v>700</v>
-      </c>
-      <c r="D108" s="12">
-        <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="6"/>
-      <c r="N108" s="6"/>
-    </row>
-    <row r="109" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C109" s="12">
-        <f t="shared" si="3"/>
-        <v>800</v>
-      </c>
-      <c r="D109" s="12">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="L109" s="14"/>
-      <c r="M109" s="6"/>
-      <c r="N109" s="6"/>
-    </row>
-    <row r="110" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C110" s="12">
-        <f t="shared" si="3"/>
-        <v>900</v>
-      </c>
-      <c r="D110" s="12">
-        <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="L110" s="14"/>
-      <c r="M110" s="6"/>
-      <c r="N110" s="6"/>
-    </row>
-    <row r="111" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C111" s="12">
-        <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="D111" s="12">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="L111" s="14"/>
-      <c r="M111" s="6"/>
-      <c r="N111" s="6"/>
-    </row>
-    <row r="112" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C112" s="12">
-        <f t="shared" si="3"/>
-        <v>1100</v>
-      </c>
-      <c r="D112" s="12">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="L112" s="14"/>
-      <c r="M112" s="6"/>
-      <c r="N112" s="6"/>
-    </row>
-    <row r="113" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C113" s="12">
-        <f t="shared" si="3"/>
-        <v>1200</v>
-      </c>
-      <c r="D113" s="12">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="L113" s="14"/>
-      <c r="M113" s="6"/>
-      <c r="N113" s="6"/>
-    </row>
-    <row r="114" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C114" s="12">
-        <f t="shared" si="3"/>
-        <v>1300</v>
-      </c>
-      <c r="D114" s="12">
-        <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="L114" s="14"/>
-      <c r="M114" s="6"/>
-      <c r="N114" s="6"/>
-    </row>
-    <row r="115" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C115" s="12">
-        <f t="shared" si="3"/>
-        <v>1400</v>
-      </c>
-      <c r="D115" s="12">
-        <f t="shared" si="2"/>
-        <v>82</v>
-      </c>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="L115" s="14"/>
-      <c r="M115" s="6"/>
-      <c r="N115" s="6"/>
-    </row>
-    <row r="116" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B116" t="s">
-        <v>31</v>
-      </c>
-      <c r="C116" s="12">
-        <f t="shared" si="3"/>
-        <v>1500</v>
-      </c>
-      <c r="D116" s="12">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="E116" s="6"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="15"/>
-      <c r="K116" s="15"/>
-      <c r="L116" s="16"/>
-      <c r="M116" s="6"/>
-      <c r="N116" s="14"/>
-    </row>
-    <row r="117" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C117" s="12">
-        <f t="shared" si="3"/>
-        <v>1600</v>
-      </c>
-      <c r="D117" s="12">
-        <f t="shared" si="2"/>
-        <v>88</v>
-      </c>
-      <c r="E117" s="6"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="6"/>
-      <c r="M117" s="6"/>
-    </row>
-    <row r="118" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C118" s="12">
-        <f t="shared" si="3"/>
-        <v>1700</v>
-      </c>
-      <c r="D118" s="12">
-        <f t="shared" si="2"/>
-        <v>91</v>
-      </c>
-      <c r="E118" s="6"/>
-      <c r="F118" s="14"/>
-      <c r="M118" s="6"/>
-    </row>
-    <row r="119" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C119" s="12">
-        <f t="shared" si="3"/>
-        <v>1800</v>
-      </c>
-      <c r="D119" s="12">
-        <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-      <c r="E119" s="6"/>
-      <c r="F119" s="14"/>
-      <c r="M119" s="6"/>
-    </row>
-    <row r="120" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C120" s="12">
-        <f t="shared" si="3"/>
-        <v>1900</v>
-      </c>
-      <c r="D120" s="12">
-        <f t="shared" si="2"/>
-        <v>97</v>
-      </c>
-      <c r="E120" s="6"/>
-      <c r="F120" s="14"/>
-      <c r="M120" s="6"/>
-    </row>
-    <row r="121" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C121" s="12">
-        <f t="shared" si="3"/>
-        <v>2000</v>
-      </c>
-      <c r="D121" s="12">
-        <f>Tres_</f>
-        <v>100</v>
-      </c>
-      <c r="E121" s="6"/>
-      <c r="F121" s="13">
-        <f>Pwf1_</f>
-        <v>30</v>
-      </c>
-      <c r="M121" s="6"/>
-    </row>
-    <row r="122" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="123" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A92" s="35"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="35"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="35"/>
+      <c r="M92" s="35"/>
+      <c r="N92" s="35"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
+      <c r="Q92" s="35"/>
+      <c r="R92" s="35"/>
+      <c r="S92" s="35"/>
+      <c r="T92" s="35"/>
+      <c r="U92" s="35"/>
+      <c r="V92" s="35"/>
+      <c r="W92" s="35"/>
+      <c r="X92" s="35"/>
+    </row>
+    <row r="93" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="35"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="35"/>
+      <c r="M93" s="35"/>
+      <c r="N93" s="35"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="35"/>
+      <c r="Q93" s="35"/>
+      <c r="R93" s="35"/>
+      <c r="S93" s="35"/>
+      <c r="T93" s="35"/>
+      <c r="U93" s="35"/>
+      <c r="V93" s="35"/>
+      <c r="W93" s="35"/>
+      <c r="X93" s="35"/>
+    </row>
+    <row r="94" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="35"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="35"/>
+      <c r="M94" s="35"/>
+      <c r="N94" s="35"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
+      <c r="S94" s="35"/>
+      <c r="T94" s="35"/>
+      <c r="U94" s="35"/>
+      <c r="V94" s="35"/>
+      <c r="W94" s="35"/>
+      <c r="X94" s="35"/>
+    </row>
+    <row r="95" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="35"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="35"/>
+      <c r="M95" s="35"/>
+      <c r="N95" s="35"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35"/>
+      <c r="Q95" s="35"/>
+      <c r="R95" s="35"/>
+      <c r="S95" s="35"/>
+      <c r="T95" s="35"/>
+      <c r="U95" s="35"/>
+      <c r="V95" s="35"/>
+      <c r="W95" s="35"/>
+      <c r="X95" s="35"/>
+    </row>
+    <row r="96" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="35"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="35"/>
+      <c r="J96" s="35"/>
+      <c r="K96" s="35"/>
+      <c r="L96" s="35"/>
+      <c r="M96" s="35"/>
+      <c r="N96" s="35"/>
+      <c r="O96" s="35"/>
+      <c r="P96" s="35"/>
+      <c r="Q96" s="35"/>
+      <c r="R96" s="35"/>
+      <c r="S96" s="35"/>
+      <c r="T96" s="35"/>
+      <c r="U96" s="35"/>
+      <c r="V96" s="35"/>
+      <c r="W96" s="35"/>
+      <c r="X96" s="35"/>
+    </row>
+    <row r="97" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="35"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="35"/>
+      <c r="J97" s="35"/>
+      <c r="K97" s="35"/>
+      <c r="L97" s="35"/>
+      <c r="M97" s="35"/>
+      <c r="N97" s="35"/>
+      <c r="O97" s="35"/>
+      <c r="P97" s="35"/>
+      <c r="Q97" s="35"/>
+      <c r="R97" s="35"/>
+      <c r="S97" s="35"/>
+      <c r="T97" s="35"/>
+      <c r="U97" s="35"/>
+      <c r="V97" s="35"/>
+      <c r="W97" s="35"/>
+      <c r="X97" s="35"/>
+    </row>
+    <row r="98" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="35"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="35"/>
+      <c r="J98" s="35"/>
+      <c r="K98" s="35"/>
+      <c r="L98" s="35"/>
+      <c r="M98" s="35"/>
+      <c r="N98" s="35"/>
+      <c r="O98" s="35"/>
+      <c r="P98" s="35"/>
+      <c r="Q98" s="35"/>
+      <c r="R98" s="35"/>
+      <c r="S98" s="35"/>
+      <c r="T98" s="35"/>
+      <c r="U98" s="35"/>
+      <c r="V98" s="35"/>
+      <c r="W98" s="35"/>
+      <c r="X98" s="35"/>
+    </row>
+    <row r="99" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="35"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="35"/>
+      <c r="J99" s="35"/>
+      <c r="K99" s="35"/>
+      <c r="L99" s="35"/>
+      <c r="M99" s="35"/>
+      <c r="N99" s="35"/>
+      <c r="O99" s="35"/>
+      <c r="P99" s="35"/>
+      <c r="Q99" s="35"/>
+      <c r="R99" s="35"/>
+      <c r="S99" s="35"/>
+      <c r="T99" s="35"/>
+      <c r="U99" s="35"/>
+      <c r="V99" s="35"/>
+      <c r="W99" s="35"/>
+      <c r="X99" s="35"/>
+    </row>
+    <row r="100" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="35"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="37"/>
+      <c r="K100" s="37"/>
+      <c r="L100" s="37"/>
+      <c r="M100" s="37"/>
+      <c r="N100" s="37"/>
+      <c r="O100" s="35"/>
+      <c r="P100" s="35"/>
+      <c r="Q100" s="35"/>
+      <c r="R100" s="35"/>
+      <c r="S100" s="35"/>
+      <c r="T100" s="35"/>
+      <c r="U100" s="35"/>
+      <c r="V100" s="35"/>
+      <c r="W100" s="35"/>
+      <c r="X100" s="35"/>
+    </row>
+    <row r="101" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="35"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="38"/>
+      <c r="F101" s="38"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="35"/>
+      <c r="J101" s="35"/>
+      <c r="K101" s="35"/>
+      <c r="L101" s="38"/>
+      <c r="M101" s="38"/>
+      <c r="N101" s="38"/>
+      <c r="O101" s="35"/>
+      <c r="P101" s="35"/>
+      <c r="Q101" s="35"/>
+      <c r="R101" s="35"/>
+      <c r="S101" s="35"/>
+      <c r="T101" s="35"/>
+      <c r="U101" s="35"/>
+      <c r="V101" s="35"/>
+      <c r="W101" s="35"/>
+      <c r="X101" s="35"/>
+    </row>
+    <row r="102" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="35"/>
+      <c r="B102" s="35"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="38"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="35"/>
+      <c r="J102" s="35"/>
+      <c r="K102" s="35"/>
+      <c r="L102" s="38"/>
+      <c r="M102" s="38"/>
+      <c r="N102" s="38"/>
+      <c r="O102" s="35"/>
+      <c r="P102" s="35"/>
+      <c r="Q102" s="35"/>
+      <c r="R102" s="35"/>
+      <c r="S102" s="35"/>
+      <c r="T102" s="35"/>
+      <c r="U102" s="35"/>
+      <c r="V102" s="35"/>
+      <c r="W102" s="35"/>
+      <c r="X102" s="35"/>
+    </row>
+    <row r="103" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="35"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="38"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="35"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="35"/>
+      <c r="L103" s="38"/>
+      <c r="M103" s="38"/>
+      <c r="N103" s="38"/>
+      <c r="O103" s="35"/>
+      <c r="P103" s="35"/>
+      <c r="Q103" s="35"/>
+      <c r="R103" s="35"/>
+      <c r="S103" s="35"/>
+      <c r="T103" s="35"/>
+      <c r="U103" s="35"/>
+      <c r="V103" s="35"/>
+      <c r="W103" s="35"/>
+      <c r="X103" s="35"/>
+    </row>
+    <row r="104" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="35"/>
+      <c r="B104" s="35"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="38"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="35"/>
+      <c r="I104" s="35"/>
+      <c r="J104" s="35"/>
+      <c r="K104" s="35"/>
+      <c r="L104" s="38"/>
+      <c r="M104" s="38"/>
+      <c r="N104" s="38"/>
+      <c r="O104" s="35"/>
+      <c r="P104" s="35"/>
+      <c r="Q104" s="35"/>
+      <c r="R104" s="35"/>
+      <c r="S104" s="35"/>
+      <c r="T104" s="35"/>
+      <c r="U104" s="35"/>
+      <c r="V104" s="35"/>
+      <c r="W104" s="35"/>
+      <c r="X104" s="35"/>
+    </row>
+    <row r="105" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="35"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="38"/>
+      <c r="F105" s="38"/>
+      <c r="G105" s="35"/>
+      <c r="H105" s="35"/>
+      <c r="I105" s="35"/>
+      <c r="J105" s="35"/>
+      <c r="K105" s="35"/>
+      <c r="L105" s="38"/>
+      <c r="M105" s="38"/>
+      <c r="N105" s="38"/>
+      <c r="O105" s="35"/>
+      <c r="P105" s="35"/>
+      <c r="Q105" s="35"/>
+      <c r="R105" s="35"/>
+      <c r="S105" s="35"/>
+      <c r="T105" s="35"/>
+      <c r="U105" s="35"/>
+      <c r="V105" s="35"/>
+      <c r="W105" s="35"/>
+      <c r="X105" s="35"/>
+    </row>
+    <row r="106" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="35"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="38"/>
+      <c r="F106" s="38"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="35"/>
+      <c r="I106" s="35"/>
+      <c r="J106" s="35"/>
+      <c r="K106" s="35"/>
+      <c r="L106" s="38"/>
+      <c r="M106" s="38"/>
+      <c r="N106" s="38"/>
+      <c r="O106" s="35"/>
+      <c r="P106" s="35"/>
+      <c r="Q106" s="35"/>
+      <c r="R106" s="35"/>
+      <c r="S106" s="35"/>
+      <c r="T106" s="35"/>
+      <c r="U106" s="35"/>
+      <c r="V106" s="35"/>
+      <c r="W106" s="35"/>
+      <c r="X106" s="35"/>
+    </row>
+    <row r="107" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="35"/>
+      <c r="B107" s="35"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="38"/>
+      <c r="F107" s="38"/>
+      <c r="G107" s="35"/>
+      <c r="H107" s="35"/>
+      <c r="I107" s="35"/>
+      <c r="J107" s="35"/>
+      <c r="K107" s="35"/>
+      <c r="L107" s="38"/>
+      <c r="M107" s="38"/>
+      <c r="N107" s="38"/>
+      <c r="O107" s="35"/>
+      <c r="P107" s="35"/>
+      <c r="Q107" s="35"/>
+      <c r="R107" s="35"/>
+      <c r="S107" s="35"/>
+      <c r="T107" s="35"/>
+      <c r="U107" s="35"/>
+      <c r="V107" s="35"/>
+      <c r="W107" s="35"/>
+      <c r="X107" s="35"/>
+    </row>
+    <row r="108" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="35"/>
+      <c r="B108" s="35"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="38"/>
+      <c r="G108" s="35"/>
+      <c r="H108" s="35"/>
+      <c r="I108" s="35"/>
+      <c r="J108" s="35"/>
+      <c r="K108" s="35"/>
+      <c r="L108" s="38"/>
+      <c r="M108" s="38"/>
+      <c r="N108" s="38"/>
+      <c r="O108" s="35"/>
+      <c r="P108" s="35"/>
+      <c r="Q108" s="35"/>
+      <c r="R108" s="35"/>
+      <c r="S108" s="35"/>
+      <c r="T108" s="35"/>
+      <c r="U108" s="35"/>
+      <c r="V108" s="35"/>
+      <c r="W108" s="35"/>
+      <c r="X108" s="35"/>
+    </row>
+    <row r="109" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="35"/>
+      <c r="B109" s="35"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="38"/>
+      <c r="G109" s="35"/>
+      <c r="H109" s="35"/>
+      <c r="I109" s="35"/>
+      <c r="J109" s="35"/>
+      <c r="K109" s="35"/>
+      <c r="L109" s="38"/>
+      <c r="M109" s="38"/>
+      <c r="N109" s="38"/>
+      <c r="O109" s="35"/>
+      <c r="P109" s="35"/>
+      <c r="Q109" s="35"/>
+      <c r="R109" s="35"/>
+      <c r="S109" s="35"/>
+      <c r="T109" s="35"/>
+      <c r="U109" s="35"/>
+      <c r="V109" s="35"/>
+      <c r="W109" s="35"/>
+      <c r="X109" s="35"/>
+    </row>
+    <row r="110" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="35"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="38"/>
+      <c r="F110" s="38"/>
+      <c r="G110" s="35"/>
+      <c r="H110" s="35"/>
+      <c r="I110" s="35"/>
+      <c r="J110" s="35"/>
+      <c r="K110" s="35"/>
+      <c r="L110" s="38"/>
+      <c r="M110" s="38"/>
+      <c r="N110" s="38"/>
+      <c r="O110" s="35"/>
+      <c r="P110" s="35"/>
+      <c r="Q110" s="35"/>
+      <c r="R110" s="35"/>
+      <c r="S110" s="35"/>
+      <c r="T110" s="35"/>
+      <c r="U110" s="35"/>
+      <c r="V110" s="35"/>
+      <c r="W110" s="35"/>
+      <c r="X110" s="35"/>
+    </row>
+    <row r="111" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="35"/>
+      <c r="B111" s="35"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="38"/>
+      <c r="F111" s="38"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="35"/>
+      <c r="I111" s="35"/>
+      <c r="J111" s="35"/>
+      <c r="K111" s="35"/>
+      <c r="L111" s="38"/>
+      <c r="M111" s="38"/>
+      <c r="N111" s="38"/>
+      <c r="O111" s="35"/>
+      <c r="P111" s="35"/>
+      <c r="Q111" s="35"/>
+      <c r="R111" s="35"/>
+      <c r="S111" s="35"/>
+      <c r="T111" s="35"/>
+      <c r="U111" s="35"/>
+      <c r="V111" s="35"/>
+      <c r="W111" s="35"/>
+      <c r="X111" s="35"/>
+    </row>
+    <row r="112" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="35"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="38"/>
+      <c r="F112" s="38"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="35"/>
+      <c r="I112" s="35"/>
+      <c r="J112" s="35"/>
+      <c r="K112" s="35"/>
+      <c r="L112" s="38"/>
+      <c r="M112" s="38"/>
+      <c r="N112" s="38"/>
+      <c r="O112" s="35"/>
+      <c r="P112" s="35"/>
+      <c r="Q112" s="35"/>
+      <c r="R112" s="35"/>
+      <c r="S112" s="35"/>
+      <c r="T112" s="35"/>
+      <c r="U112" s="35"/>
+      <c r="V112" s="35"/>
+      <c r="W112" s="35"/>
+      <c r="X112" s="35"/>
+    </row>
+    <row r="113" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="35"/>
+      <c r="B113" s="35"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="38"/>
+      <c r="F113" s="38"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="35"/>
+      <c r="I113" s="35"/>
+      <c r="J113" s="35"/>
+      <c r="K113" s="35"/>
+      <c r="L113" s="38"/>
+      <c r="M113" s="38"/>
+      <c r="N113" s="38"/>
+      <c r="O113" s="35"/>
+      <c r="P113" s="35"/>
+      <c r="Q113" s="35"/>
+      <c r="R113" s="35"/>
+      <c r="S113" s="35"/>
+      <c r="T113" s="35"/>
+      <c r="U113" s="35"/>
+      <c r="V113" s="35"/>
+      <c r="W113" s="35"/>
+      <c r="X113" s="35"/>
+    </row>
+    <row r="114" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="35"/>
+      <c r="B114" s="35"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="38"/>
+      <c r="F114" s="38"/>
+      <c r="G114" s="35"/>
+      <c r="H114" s="35"/>
+      <c r="I114" s="35"/>
+      <c r="J114" s="35"/>
+      <c r="K114" s="35"/>
+      <c r="L114" s="38"/>
+      <c r="M114" s="38"/>
+      <c r="N114" s="38"/>
+      <c r="O114" s="35"/>
+      <c r="P114" s="35"/>
+      <c r="Q114" s="35"/>
+      <c r="R114" s="35"/>
+      <c r="S114" s="35"/>
+      <c r="T114" s="35"/>
+      <c r="U114" s="35"/>
+      <c r="V114" s="35"/>
+      <c r="W114" s="35"/>
+      <c r="X114" s="35"/>
+    </row>
+    <row r="115" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="35"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="38"/>
+      <c r="F115" s="38"/>
+      <c r="G115" s="35"/>
+      <c r="H115" s="35"/>
+      <c r="I115" s="35"/>
+      <c r="J115" s="35"/>
+      <c r="K115" s="35"/>
+      <c r="L115" s="38"/>
+      <c r="M115" s="38"/>
+      <c r="N115" s="38"/>
+      <c r="O115" s="35"/>
+      <c r="P115" s="35"/>
+      <c r="Q115" s="35"/>
+      <c r="R115" s="35"/>
+      <c r="S115" s="35"/>
+      <c r="T115" s="35"/>
+      <c r="U115" s="35"/>
+      <c r="V115" s="35"/>
+      <c r="W115" s="35"/>
+      <c r="X115" s="35"/>
+    </row>
+    <row r="116" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="35"/>
+      <c r="B116" s="35"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="38"/>
+      <c r="F116" s="38"/>
+      <c r="G116" s="38"/>
+      <c r="H116" s="35"/>
+      <c r="I116" s="35"/>
+      <c r="J116" s="35"/>
+      <c r="K116" s="35"/>
+      <c r="L116" s="39"/>
+      <c r="M116" s="38"/>
+      <c r="N116" s="38"/>
+      <c r="O116" s="35"/>
+      <c r="P116" s="35"/>
+      <c r="Q116" s="35"/>
+      <c r="R116" s="35"/>
+      <c r="S116" s="35"/>
+      <c r="T116" s="35"/>
+      <c r="U116" s="35"/>
+      <c r="V116" s="35"/>
+      <c r="W116" s="35"/>
+      <c r="X116" s="35"/>
+    </row>
+    <row r="117" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="35"/>
+      <c r="B117" s="35"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="38"/>
+      <c r="F117" s="38"/>
+      <c r="G117" s="38"/>
+      <c r="H117" s="35"/>
+      <c r="I117" s="35"/>
+      <c r="J117" s="35"/>
+      <c r="K117" s="35"/>
+      <c r="L117" s="35"/>
+      <c r="M117" s="38"/>
+      <c r="N117" s="35"/>
+      <c r="O117" s="35"/>
+      <c r="P117" s="35"/>
+      <c r="Q117" s="35"/>
+      <c r="R117" s="35"/>
+      <c r="S117" s="35"/>
+      <c r="T117" s="35"/>
+      <c r="U117" s="35"/>
+      <c r="V117" s="35"/>
+      <c r="W117" s="35"/>
+      <c r="X117" s="35"/>
+    </row>
+    <row r="118" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="35"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="38"/>
+      <c r="F118" s="38"/>
+      <c r="G118" s="35"/>
+      <c r="H118" s="35"/>
+      <c r="I118" s="35"/>
+      <c r="J118" s="35"/>
+      <c r="K118" s="35"/>
+      <c r="L118" s="35"/>
+      <c r="M118" s="38"/>
+      <c r="N118" s="35"/>
+      <c r="O118" s="35"/>
+      <c r="P118" s="35"/>
+      <c r="Q118" s="35"/>
+      <c r="R118" s="35"/>
+      <c r="S118" s="35"/>
+      <c r="T118" s="35"/>
+      <c r="U118" s="35"/>
+      <c r="V118" s="35"/>
+      <c r="W118" s="35"/>
+      <c r="X118" s="35"/>
+    </row>
+    <row r="119" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="35"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="38"/>
+      <c r="F119" s="38"/>
+      <c r="G119" s="35"/>
+      <c r="H119" s="35"/>
+      <c r="I119" s="35"/>
+      <c r="J119" s="35"/>
+      <c r="K119" s="35"/>
+      <c r="L119" s="35"/>
+      <c r="M119" s="38"/>
+      <c r="N119" s="35"/>
+      <c r="O119" s="35"/>
+      <c r="P119" s="35"/>
+      <c r="Q119" s="35"/>
+      <c r="R119" s="35"/>
+      <c r="S119" s="35"/>
+      <c r="T119" s="35"/>
+      <c r="U119" s="35"/>
+      <c r="V119" s="35"/>
+      <c r="W119" s="35"/>
+      <c r="X119" s="35"/>
+    </row>
+    <row r="120" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="35"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="38"/>
+      <c r="F120" s="38"/>
+      <c r="G120" s="35"/>
+      <c r="H120" s="35"/>
+      <c r="I120" s="35"/>
+      <c r="J120" s="35"/>
+      <c r="K120" s="35"/>
+      <c r="L120" s="35"/>
+      <c r="M120" s="38"/>
+      <c r="N120" s="35"/>
+      <c r="O120" s="35"/>
+      <c r="P120" s="35"/>
+      <c r="Q120" s="35"/>
+      <c r="R120" s="35"/>
+      <c r="S120" s="35"/>
+      <c r="T120" s="35"/>
+      <c r="U120" s="35"/>
+      <c r="V120" s="35"/>
+      <c r="W120" s="35"/>
+      <c r="X120" s="35"/>
+    </row>
+    <row r="121" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="35"/>
+      <c r="B121" s="35"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="22"/>
+      <c r="E121" s="38"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="35"/>
+      <c r="H121" s="35"/>
+      <c r="I121" s="35"/>
+      <c r="J121" s="35"/>
+      <c r="K121" s="35"/>
+      <c r="L121" s="35"/>
+      <c r="M121" s="38"/>
+      <c r="N121" s="35"/>
+      <c r="O121" s="35"/>
+      <c r="P121" s="35"/>
+      <c r="Q121" s="35"/>
+      <c r="R121" s="35"/>
+      <c r="S121" s="35"/>
+      <c r="T121" s="35"/>
+      <c r="U121" s="35"/>
+      <c r="V121" s="35"/>
+      <c r="W121" s="35"/>
+      <c r="X121" s="35"/>
+    </row>
+    <row r="122" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="35"/>
+      <c r="B122" s="35"/>
+      <c r="C122" s="35"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="35"/>
+      <c r="F122" s="35"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="35"/>
+      <c r="I122" s="35"/>
+      <c r="J122" s="35"/>
+      <c r="K122" s="35"/>
+      <c r="L122" s="35"/>
+      <c r="M122" s="35"/>
+      <c r="N122" s="35"/>
+      <c r="O122" s="35"/>
+      <c r="P122" s="35"/>
+      <c r="Q122" s="35"/>
+      <c r="R122" s="35"/>
+      <c r="S122" s="35"/>
+      <c r="T122" s="35"/>
+      <c r="U122" s="35"/>
+      <c r="V122" s="35"/>
+      <c r="W122" s="35"/>
+      <c r="X122" s="35"/>
+    </row>
+    <row r="123" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="35"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="35"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="35"/>
+      <c r="F123" s="35"/>
+      <c r="G123" s="35"/>
+      <c r="H123" s="35"/>
+      <c r="I123" s="35"/>
+      <c r="J123" s="35"/>
+      <c r="K123" s="35"/>
+      <c r="L123" s="35"/>
+      <c r="M123" s="35"/>
+      <c r="N123" s="35"/>
+      <c r="O123" s="35"/>
+      <c r="P123" s="35"/>
+      <c r="Q123" s="35"/>
+      <c r="R123" s="35"/>
+      <c r="S123" s="35"/>
+      <c r="T123" s="35"/>
+      <c r="U123" s="35"/>
+      <c r="V123" s="35"/>
+      <c r="W123" s="35"/>
+      <c r="X123" s="35"/>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A124" s="35"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="35"/>
+      <c r="D124" s="35"/>
+      <c r="E124" s="35"/>
+      <c r="F124" s="35"/>
+      <c r="G124" s="35"/>
+      <c r="H124" s="35"/>
+      <c r="I124" s="35"/>
+      <c r="J124" s="35"/>
+      <c r="K124" s="35"/>
+      <c r="L124" s="35"/>
+      <c r="M124" s="35"/>
+      <c r="N124" s="35"/>
+      <c r="O124" s="35"/>
+      <c r="P124" s="35"/>
+      <c r="Q124" s="35"/>
+      <c r="R124" s="35"/>
+      <c r="S124" s="35"/>
+      <c r="T124" s="35"/>
+      <c r="U124" s="35"/>
+      <c r="V124" s="35"/>
+      <c r="W124" s="35"/>
+      <c r="X124" s="35"/>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A125" s="35"/>
+      <c r="B125" s="35"/>
+      <c r="C125" s="35"/>
+      <c r="D125" s="35"/>
+      <c r="E125" s="35"/>
+      <c r="F125" s="35"/>
+      <c r="G125" s="35"/>
+      <c r="H125" s="35"/>
+      <c r="I125" s="35"/>
+      <c r="J125" s="35"/>
+      <c r="K125" s="35"/>
+      <c r="L125" s="35"/>
+      <c r="M125" s="35"/>
+      <c r="N125" s="35"/>
+      <c r="O125" s="35"/>
+      <c r="P125" s="35"/>
+      <c r="Q125" s="35"/>
+      <c r="R125" s="35"/>
+      <c r="S125" s="35"/>
+      <c r="T125" s="35"/>
+      <c r="U125" s="35"/>
+      <c r="V125" s="35"/>
+      <c r="W125" s="35"/>
+      <c r="X125" s="35"/>
+    </row>
     <row r="183" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L183" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L194" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G63:K63"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
